--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_maybeinorgtree_tocode.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_maybeinorgtree_tocode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458457C9-BE5D-4AFD-AA18-24FCFDB0E8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F323C8B7-CF57-4A30-90D7-EAA100B7FB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3812,7 +3812,7 @@
   <dimension ref="A1:J743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3823,7 +3823,7 @@
     <col min="4" max="4" width="15.81640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="15.81640625" style="8" customWidth="1"/>
     <col min="6" max="6" width="36.54296875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="33.90625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="52.26953125" style="6" customWidth="1"/>
     <col min="8" max="9" width="22.90625" style="8" customWidth="1"/>
     <col min="10" max="10" width="15.81640625" style="4" customWidth="1"/>
     <col min="11" max="16384" width="8.7265625" style="4"/>
@@ -3868,9 +3868,6 @@
       <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
@@ -3888,9 +3885,6 @@
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
@@ -3902,9 +3896,6 @@
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F4" s="6" t="s">
         <v>26</v>
       </c>
@@ -3916,9 +3907,6 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F5" s="6" t="s">
         <v>26</v>
       </c>
@@ -3930,9 +3918,6 @@
       <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F6" s="6" t="s">
         <v>26</v>
       </c>
@@ -3947,9 +3932,6 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -3958,9 +3940,6 @@
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F8" s="6" t="s">
         <v>30</v>
       </c>
@@ -3972,9 +3951,6 @@
       <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F9" s="6" t="s">
         <v>32</v>
       </c>
@@ -3989,9 +3965,6 @@
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
@@ -4006,9 +3979,6 @@
       <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F11" s="6" t="s">
         <v>37</v>
       </c>
@@ -4023,9 +3993,6 @@
       <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F12" s="6" t="s">
         <v>37</v>
       </c>
@@ -4040,9 +4007,6 @@
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F13" s="6" t="s">
         <v>37</v>
       </c>
@@ -4057,9 +4021,6 @@
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F14" s="6" t="s">
         <v>37</v>
       </c>
@@ -4074,9 +4035,6 @@
       <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F15" s="6" t="s">
         <v>37</v>
       </c>
@@ -4094,9 +4052,6 @@
       <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F16" s="6" t="s">
         <v>45</v>
       </c>
@@ -4108,9 +4063,6 @@
       <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F17" s="6" t="s">
         <v>48</v>
       </c>
@@ -4128,9 +4080,6 @@
       <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F18" s="6" t="s">
         <v>37</v>
       </c>
@@ -4145,9 +4094,6 @@
       <c r="C19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F19" s="6" t="s">
         <v>37</v>
       </c>
@@ -4162,9 +4108,6 @@
       <c r="C20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F20" s="6" t="s">
         <v>37</v>
       </c>
@@ -4179,9 +4122,6 @@
       <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F21" s="6" t="s">
         <v>12</v>
       </c>
@@ -4196,9 +4136,6 @@
       <c r="C22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F22" s="6" t="s">
         <v>12</v>
       </c>
@@ -4213,9 +4150,6 @@
       <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F23" s="6" t="s">
         <v>37</v>
       </c>
@@ -4230,9 +4164,6 @@
       <c r="C24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F24" s="6" t="s">
         <v>37</v>
       </c>
@@ -4247,9 +4178,6 @@
       <c r="C25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F25" s="6" t="s">
         <v>12</v>
       </c>
@@ -4264,9 +4192,6 @@
       <c r="C26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F26" s="6" t="s">
         <v>12</v>
       </c>
@@ -4281,9 +4206,6 @@
       <c r="C27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F27" s="6" t="s">
         <v>67</v>
       </c>
@@ -4298,9 +4220,6 @@
       <c r="C28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F28" s="6" t="s">
         <v>67</v>
       </c>
@@ -4315,9 +4234,6 @@
       <c r="C29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F29" s="6" t="s">
         <v>37</v>
       </c>
@@ -4332,9 +4248,6 @@
       <c r="C30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F30" s="6" t="s">
         <v>67</v>
       </c>
@@ -4346,9 +4259,6 @@
       <c r="C31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F31" s="6" t="s">
         <v>67</v>
       </c>
@@ -4363,9 +4273,6 @@
       <c r="C32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F32" s="6" t="s">
         <v>67</v>
       </c>
@@ -4380,9 +4287,6 @@
       <c r="C33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F33" s="6" t="s">
         <v>67</v>
       </c>
@@ -4397,9 +4301,6 @@
       <c r="C34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F34" s="6" t="s">
         <v>67</v>
       </c>
@@ -4417,9 +4318,6 @@
       <c r="C35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F35" s="6" t="s">
         <v>67</v>
       </c>
@@ -4434,9 +4332,6 @@
       <c r="C36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F36" s="6" t="s">
         <v>88</v>
       </c>
@@ -4451,9 +4346,6 @@
       <c r="C37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F37" s="6" t="s">
         <v>37</v>
       </c>
@@ -4468,9 +4360,6 @@
       <c r="C38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F38" s="6" t="s">
         <v>12</v>
       </c>
@@ -4485,9 +4374,6 @@
       <c r="C39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F39" s="6" t="s">
         <v>37</v>
       </c>
@@ -4502,9 +4388,6 @@
       <c r="C40" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F40" s="6" t="s">
         <v>37</v>
       </c>
@@ -4519,9 +4402,6 @@
       <c r="C41" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F41" s="6" t="s">
         <v>97</v>
       </c>
@@ -4533,9 +4413,6 @@
       <c r="C42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F42" s="6" t="s">
         <v>98</v>
       </c>
@@ -4547,9 +4424,6 @@
       <c r="C43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F43" s="6" t="s">
         <v>100</v>
       </c>
@@ -4561,9 +4435,6 @@
       <c r="C44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F44" s="6" t="s">
         <v>102</v>
       </c>
@@ -4578,9 +4449,6 @@
       <c r="C45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F45" s="6" t="s">
         <v>100</v>
       </c>
@@ -4592,9 +4460,6 @@
       <c r="C46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F46" s="6" t="s">
         <v>104</v>
       </c>
@@ -4606,9 +4471,6 @@
       <c r="C47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F47" s="6" t="s">
         <v>105</v>
       </c>
@@ -4623,9 +4485,6 @@
       <c r="C48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F48" s="6" t="s">
         <v>105</v>
       </c>
@@ -4637,9 +4496,6 @@
       <c r="C49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F49" s="6" t="s">
         <v>108</v>
       </c>
@@ -4651,9 +4507,6 @@
       <c r="C50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F50" s="6" t="s">
         <v>108</v>
       </c>
@@ -4668,9 +4521,6 @@
       <c r="C51" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F51" s="6" t="s">
         <v>113</v>
       </c>
@@ -4685,9 +4535,6 @@
       <c r="C52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F52" s="6" t="s">
         <v>113</v>
       </c>
@@ -4699,9 +4546,6 @@
       <c r="C53" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F53" s="6" t="s">
         <v>67</v>
       </c>
@@ -4716,9 +4560,6 @@
       <c r="C54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F54" s="6" t="s">
         <v>37</v>
       </c>
@@ -4736,9 +4577,6 @@
       <c r="C55" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F55" s="6" t="s">
         <v>17</v>
       </c>
@@ -4753,9 +4591,6 @@
       <c r="C56" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F56" s="6" t="s">
         <v>17</v>
       </c>
@@ -4773,9 +4608,6 @@
       <c r="C57" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F57" s="6" t="s">
         <v>97</v>
       </c>
@@ -4787,9 +4619,6 @@
       <c r="C58" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F58" s="6" t="s">
         <v>97</v>
       </c>
@@ -4801,9 +4630,6 @@
       <c r="C59" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F59" s="6" t="s">
         <v>12</v>
       </c>
@@ -4818,9 +4644,6 @@
       <c r="C60" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F60" s="6" t="s">
         <v>12</v>
       </c>
@@ -4835,9 +4658,6 @@
       <c r="C61" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F61" s="6" t="s">
         <v>133</v>
       </c>
@@ -4852,9 +4672,6 @@
       <c r="C62" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F62" s="6" t="s">
         <v>12</v>
       </c>
@@ -4869,9 +4686,6 @@
       <c r="C63" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F63" s="6" t="s">
         <v>137</v>
       </c>
@@ -4883,9 +4697,6 @@
       <c r="C64" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F64" s="6" t="s">
         <v>139</v>
       </c>
@@ -4900,9 +4711,6 @@
       <c r="C65" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F65" s="6" t="s">
         <v>37</v>
       </c>
@@ -4917,9 +4725,6 @@
       <c r="C66" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F66" s="6" t="s">
         <v>142</v>
       </c>
@@ -4934,9 +4739,6 @@
       <c r="C67" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F67" s="6" t="s">
         <v>142</v>
       </c>
@@ -4951,9 +4753,6 @@
       <c r="C68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F68" s="6" t="s">
         <v>37</v>
       </c>
@@ -4968,9 +4767,6 @@
       <c r="C69" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F69" s="6" t="s">
         <v>142</v>
       </c>
@@ -4985,9 +4781,6 @@
       <c r="C70" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F70" s="6" t="s">
         <v>12</v>
       </c>
@@ -5005,9 +4798,6 @@
       <c r="C71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F71" s="6" t="s">
         <v>153</v>
       </c>
@@ -5022,9 +4812,6 @@
       <c r="C72" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F72" s="6" t="s">
         <v>157</v>
       </c>
@@ -5036,9 +4823,6 @@
       <c r="C73" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F73" s="6" t="s">
         <v>159</v>
       </c>
@@ -5053,9 +4837,6 @@
       <c r="C74" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F74" s="6" t="s">
         <v>162</v>
       </c>
@@ -5070,9 +4851,6 @@
       <c r="C75" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F75" s="6" t="s">
         <v>168</v>
       </c>
@@ -5084,9 +4862,6 @@
       <c r="C76" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F76" s="6" t="s">
         <v>173</v>
       </c>
@@ -5101,9 +4876,6 @@
       <c r="C77" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F77" s="6" t="s">
         <v>173</v>
       </c>
@@ -5118,9 +4890,6 @@
       <c r="C78" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F78" s="6" t="s">
         <v>37</v>
       </c>
@@ -5135,9 +4904,6 @@
       <c r="C79" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F79" s="6" t="s">
         <v>181</v>
       </c>
@@ -5149,9 +4915,6 @@
       <c r="C80" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F80" s="6" t="s">
         <v>182</v>
       </c>
@@ -5163,9 +4926,6 @@
       <c r="C81" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F81" s="6" t="s">
         <v>182</v>
       </c>
@@ -5177,9 +4937,6 @@
       <c r="C82" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F82" s="6" t="s">
         <v>185</v>
       </c>
@@ -5191,9 +4948,6 @@
       <c r="C83" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F83" s="6" t="s">
         <v>189</v>
       </c>
@@ -5205,9 +4959,6 @@
       <c r="C84" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F84" s="6" t="s">
         <v>189</v>
       </c>
@@ -5219,9 +4970,6 @@
       <c r="C85" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F85" s="6" t="s">
         <v>193</v>
       </c>
@@ -5233,9 +4981,6 @@
       <c r="C86" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F86" s="6" t="s">
         <v>193</v>
       </c>
@@ -5247,9 +4992,6 @@
       <c r="C87" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F87" s="6" t="s">
         <v>195</v>
       </c>
@@ -5261,9 +5003,6 @@
       <c r="C88" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F88" s="6" t="s">
         <v>12</v>
       </c>
@@ -5278,9 +5017,6 @@
       <c r="C89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F89" s="6" t="s">
         <v>12</v>
       </c>
@@ -5295,9 +5031,6 @@
       <c r="C90" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F90" s="6" t="s">
         <v>12</v>
       </c>
@@ -5312,9 +5045,6 @@
       <c r="C91" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F91" s="6" t="s">
         <v>12</v>
       </c>
@@ -5329,9 +5059,6 @@
       <c r="C92" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F92" s="6" t="s">
         <v>12</v>
       </c>
@@ -5349,9 +5076,6 @@
       <c r="C93" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F93" s="6" t="s">
         <v>203</v>
       </c>
@@ -5363,9 +5087,6 @@
       <c r="C94" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F94" s="6" t="s">
         <v>12</v>
       </c>
@@ -5380,9 +5101,6 @@
       <c r="C95" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F95" s="6" t="s">
         <v>12</v>
       </c>
@@ -5397,9 +5115,6 @@
       <c r="C96" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F96" s="6" t="s">
         <v>37</v>
       </c>
@@ -5414,9 +5129,6 @@
       <c r="C97" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F97" s="6" t="s">
         <v>37</v>
       </c>
@@ -5431,9 +5143,6 @@
       <c r="C98" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F98" s="6" t="s">
         <v>213</v>
       </c>
@@ -5445,9 +5154,6 @@
       <c r="C99" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F99" s="6" t="s">
         <v>215</v>
       </c>
@@ -5462,9 +5168,6 @@
       <c r="C100" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F100" s="6" t="s">
         <v>215</v>
       </c>
@@ -5476,9 +5179,6 @@
       <c r="C101" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F101" s="6" t="s">
         <v>215</v>
       </c>
@@ -5493,9 +5193,6 @@
       <c r="C102" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F102" s="6" t="s">
         <v>215</v>
       </c>
@@ -5510,9 +5207,6 @@
       <c r="C103" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F103" s="6" t="s">
         <v>219</v>
       </c>
@@ -5530,9 +5224,6 @@
       <c r="C104" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F104" s="6" t="s">
         <v>220</v>
       </c>
@@ -5544,9 +5235,6 @@
       <c r="C105" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F105" s="6" t="s">
         <v>222</v>
       </c>
@@ -5561,9 +5249,6 @@
       <c r="C106" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F106" s="6" t="s">
         <v>159</v>
       </c>
@@ -5575,9 +5260,6 @@
       <c r="C107" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F107" s="6" t="s">
         <v>159</v>
       </c>
@@ -5589,9 +5271,6 @@
       <c r="C108" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F108" s="6" t="s">
         <v>12</v>
       </c>
@@ -5606,9 +5285,6 @@
       <c r="C109" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D109" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F109" s="6" t="s">
         <v>159</v>
       </c>
@@ -5623,9 +5299,6 @@
       <c r="C110" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F110" s="6" t="s">
         <v>37</v>
       </c>
@@ -5643,9 +5316,6 @@
       <c r="C111" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F111" s="6" t="s">
         <v>230</v>
       </c>
@@ -5657,9 +5327,6 @@
       <c r="C112" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D112" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F112" s="6" t="s">
         <v>230</v>
       </c>
@@ -5674,9 +5341,6 @@
       <c r="C113" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F113" s="6" t="s">
         <v>230</v>
       </c>
@@ -5691,9 +5355,6 @@
       <c r="C114" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D114" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F114" s="6" t="s">
         <v>230</v>
       </c>
@@ -5711,9 +5372,6 @@
       <c r="C115" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D115" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F115" s="6" t="s">
         <v>37</v>
       </c>
@@ -5728,9 +5386,6 @@
       <c r="C116" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F116" s="6" t="s">
         <v>37</v>
       </c>
@@ -5745,9 +5400,6 @@
       <c r="C117" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F117" s="6" t="s">
         <v>37</v>
       </c>
@@ -5765,9 +5417,6 @@
       <c r="C118" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F118" s="6" t="s">
         <v>157</v>
       </c>
@@ -5779,9 +5428,6 @@
       <c r="C119" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F119" s="6" t="s">
         <v>12</v>
       </c>
@@ -5796,9 +5442,6 @@
       <c r="C120" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F120" s="6" t="s">
         <v>12</v>
       </c>
@@ -5813,9 +5456,6 @@
       <c r="C121" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F121" s="6" t="s">
         <v>12</v>
       </c>
@@ -5830,9 +5470,6 @@
       <c r="C122" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F122" s="6" t="s">
         <v>12</v>
       </c>
@@ -5847,9 +5484,6 @@
       <c r="C123" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D123" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F123" s="6" t="s">
         <v>37</v>
       </c>
@@ -5864,9 +5498,6 @@
       <c r="C124" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F124" s="6" t="s">
         <v>37</v>
       </c>
@@ -5881,9 +5512,6 @@
       <c r="C125" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F125" s="6" t="s">
         <v>248</v>
       </c>
@@ -5898,9 +5526,6 @@
       <c r="C126" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D126" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F126" s="6" t="s">
         <v>248</v>
       </c>
@@ -5915,9 +5540,6 @@
       <c r="C127" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F127" s="6" t="s">
         <v>248</v>
       </c>
@@ -5932,9 +5554,6 @@
       <c r="C128" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F128" s="6" t="s">
         <v>248</v>
       </c>
@@ -5949,9 +5568,6 @@
       <c r="C129" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D129" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F129" s="6" t="s">
         <v>37</v>
       </c>
@@ -5966,9 +5582,6 @@
       <c r="C130" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D130" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F130" s="6" t="s">
         <v>248</v>
       </c>
@@ -5986,9 +5599,6 @@
       <c r="C131" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F131" s="6" t="s">
         <v>248</v>
       </c>
@@ -6006,9 +5616,6 @@
       <c r="C132" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F132" s="6" t="s">
         <v>12</v>
       </c>
@@ -6023,9 +5630,6 @@
       <c r="C133" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F133" s="6" t="s">
         <v>248</v>
       </c>
@@ -6040,9 +5644,6 @@
       <c r="C134" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F134" s="6" t="s">
         <v>248</v>
       </c>
@@ -6060,9 +5661,6 @@
       <c r="C135" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F135" s="6" t="s">
         <v>248</v>
       </c>
@@ -6080,9 +5678,6 @@
       <c r="C136" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F136" s="6" t="s">
         <v>248</v>
       </c>
@@ -6097,9 +5692,6 @@
       <c r="C137" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F137" s="6" t="s">
         <v>248</v>
       </c>
@@ -6114,9 +5706,6 @@
       <c r="C138" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D138" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F138" s="6" t="s">
         <v>67</v>
       </c>
@@ -6131,9 +5720,6 @@
       <c r="C139" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F139" s="6" t="s">
         <v>173</v>
       </c>
@@ -6148,9 +5734,6 @@
       <c r="C140" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D140" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F140" s="6" t="s">
         <v>248</v>
       </c>
@@ -6165,9 +5748,6 @@
       <c r="C141" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D141" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F141" s="6" t="s">
         <v>37</v>
       </c>
@@ -6182,9 +5762,6 @@
       <c r="C142" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D142" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F142" s="6" t="s">
         <v>289</v>
       </c>
@@ -6196,9 +5773,6 @@
       <c r="C143" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D143" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F143" s="6" t="s">
         <v>37</v>
       </c>
@@ -6216,9 +5790,6 @@
       <c r="C144" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D144" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F144" s="6" t="s">
         <v>293</v>
       </c>
@@ -6230,9 +5801,6 @@
       <c r="C145" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D145" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F145" s="6" t="s">
         <v>293</v>
       </c>
@@ -6244,9 +5812,6 @@
       <c r="C146" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D146" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F146" s="6" t="s">
         <v>248</v>
       </c>
@@ -6261,9 +5826,6 @@
       <c r="C147" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D147" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F147" s="6" t="s">
         <v>173</v>
       </c>
@@ -6281,9 +5843,6 @@
       <c r="C148" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D148" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F148" s="6" t="s">
         <v>297</v>
       </c>
@@ -6295,9 +5854,6 @@
       <c r="C149" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F149" s="6" t="s">
         <v>67</v>
       </c>
@@ -6312,9 +5868,6 @@
       <c r="C150" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D150" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F150" s="6" t="s">
         <v>303</v>
       </c>
@@ -6326,9 +5879,6 @@
       <c r="C151" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D151" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F151" s="6" t="s">
         <v>37</v>
       </c>
@@ -6343,9 +5893,6 @@
       <c r="C152" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D152" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F152" s="6" t="s">
         <v>37</v>
       </c>
@@ -6363,9 +5910,6 @@
       <c r="C153" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F153" s="6" t="s">
         <v>309</v>
       </c>
@@ -6380,9 +5924,6 @@
       <c r="C154" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D154" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F154" s="6" t="s">
         <v>309</v>
       </c>
@@ -6397,9 +5938,6 @@
       <c r="C155" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D155" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F155" s="6" t="s">
         <v>311</v>
       </c>
@@ -6414,9 +5952,6 @@
       <c r="C156" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D156" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F156" s="6" t="s">
         <v>313</v>
       </c>
@@ -6431,9 +5966,6 @@
       <c r="C157" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D157" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F157" s="6" t="s">
         <v>37</v>
       </c>
@@ -6448,9 +5980,6 @@
       <c r="C158" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D158" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F158" s="6" t="s">
         <v>317</v>
       </c>
@@ -6465,9 +5994,6 @@
       <c r="C159" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D159" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F159" s="6" t="s">
         <v>317</v>
       </c>
@@ -6482,9 +6008,6 @@
       <c r="C160" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F160" s="6" t="s">
         <v>37</v>
       </c>
@@ -6499,9 +6022,6 @@
       <c r="C161" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D161" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F161" s="6" t="s">
         <v>321</v>
       </c>
@@ -6513,9 +6033,6 @@
       <c r="C162" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D162" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F162" s="6" t="s">
         <v>12</v>
       </c>
@@ -6530,9 +6047,6 @@
       <c r="C163" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F163" s="6" t="s">
         <v>324</v>
       </c>
@@ -6544,9 +6058,6 @@
       <c r="C164" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D164" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F164" s="6" t="s">
         <v>326</v>
       </c>
@@ -6561,9 +6072,6 @@
       <c r="C165" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D165" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F165" s="6" t="s">
         <v>67</v>
       </c>
@@ -6578,9 +6086,6 @@
       <c r="C166" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D166" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F166" s="6" t="s">
         <v>12</v>
       </c>
@@ -6595,9 +6100,6 @@
       <c r="C167" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D167" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F167" s="6" t="s">
         <v>37</v>
       </c>
@@ -6612,9 +6114,6 @@
       <c r="C168" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D168" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F168" s="6" t="s">
         <v>12</v>
       </c>
@@ -6629,9 +6128,6 @@
       <c r="C169" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D169" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F169" s="6" t="s">
         <v>12</v>
       </c>
@@ -6646,9 +6142,6 @@
       <c r="C170" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D170" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F170" s="6" t="s">
         <v>37</v>
       </c>
@@ -6663,9 +6156,6 @@
       <c r="C171" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D171" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F171" s="6" t="s">
         <v>37</v>
       </c>
@@ -6680,9 +6170,6 @@
       <c r="C172" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D172" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F172" s="6" t="s">
         <v>67</v>
       </c>
@@ -6697,9 +6184,6 @@
       <c r="C173" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D173" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F173" s="6" t="s">
         <v>67</v>
       </c>
@@ -6714,9 +6198,6 @@
       <c r="C174" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D174" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F174" s="6" t="s">
         <v>37</v>
       </c>
@@ -6731,9 +6212,6 @@
       <c r="C175" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D175" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F175" s="6" t="s">
         <v>37</v>
       </c>
@@ -6748,9 +6226,6 @@
       <c r="C176" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D176" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F176" s="6" t="s">
         <v>12</v>
       </c>
@@ -6765,9 +6240,6 @@
       <c r="C177" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D177" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F177" s="6" t="s">
         <v>12</v>
       </c>
@@ -6782,9 +6254,6 @@
       <c r="C178" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F178" s="6" t="s">
         <v>12</v>
       </c>
@@ -6799,9 +6268,6 @@
       <c r="C179" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D179" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F179" s="6" t="s">
         <v>37</v>
       </c>
@@ -6816,9 +6282,6 @@
       <c r="C180" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D180" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F180" s="6" t="s">
         <v>353</v>
       </c>
@@ -6833,9 +6296,6 @@
       <c r="C181" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D181" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F181" s="6" t="s">
         <v>67</v>
       </c>
@@ -6850,9 +6310,6 @@
       <c r="C182" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D182" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F182" s="6" t="s">
         <v>67</v>
       </c>
@@ -6867,9 +6324,6 @@
       <c r="C183" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D183" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F183" s="6" t="s">
         <v>12</v>
       </c>
@@ -6884,9 +6338,6 @@
       <c r="C184" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D184" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F184" s="6" t="s">
         <v>12</v>
       </c>
@@ -6901,9 +6352,6 @@
       <c r="C185" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D185" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F185" s="6" t="s">
         <v>362</v>
       </c>
@@ -6915,9 +6363,6 @@
       <c r="C186" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D186" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F186" s="6" t="s">
         <v>363</v>
       </c>
@@ -6929,9 +6374,6 @@
       <c r="C187" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D187" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F187" s="6" t="s">
         <v>313</v>
       </c>
@@ -6946,9 +6388,6 @@
       <c r="C188" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D188" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F188" s="6" t="s">
         <v>12</v>
       </c>
@@ -6963,9 +6402,6 @@
       <c r="C189" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D189" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F189" s="6" t="s">
         <v>12</v>
       </c>
@@ -6980,9 +6416,6 @@
       <c r="C190" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D190" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F190" s="6" t="s">
         <v>67</v>
       </c>
@@ -6997,9 +6430,6 @@
       <c r="C191" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D191" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F191" s="6" t="s">
         <v>37</v>
       </c>
@@ -7014,9 +6444,6 @@
       <c r="C192" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D192" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F192" s="6" t="s">
         <v>12</v>
       </c>
@@ -7031,9 +6458,6 @@
       <c r="C193" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D193" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F193" s="6" t="s">
         <v>67</v>
       </c>
@@ -7048,9 +6472,6 @@
       <c r="C194" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D194" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F194" s="6" t="s">
         <v>67</v>
       </c>
@@ -7065,9 +6486,6 @@
       <c r="C195" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D195" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F195" s="6" t="s">
         <v>376</v>
       </c>
@@ -7079,9 +6497,6 @@
       <c r="C196" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D196" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F196" s="6" t="s">
         <v>376</v>
       </c>
@@ -7093,9 +6508,6 @@
       <c r="C197" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D197" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F197" s="6" t="s">
         <v>12</v>
       </c>
@@ -7110,9 +6522,6 @@
       <c r="C198" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D198" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F198" s="6" t="s">
         <v>379</v>
       </c>
@@ -7124,9 +6533,6 @@
       <c r="C199" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D199" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F199" s="6" t="s">
         <v>376</v>
       </c>
@@ -7138,9 +6544,6 @@
       <c r="C200" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D200" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F200" s="6" t="s">
         <v>12</v>
       </c>
@@ -7155,9 +6558,6 @@
       <c r="C201" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D201" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F201" s="6" t="s">
         <v>37</v>
       </c>
@@ -7172,9 +6572,6 @@
       <c r="C202" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D202" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F202" s="6" t="s">
         <v>37</v>
       </c>
@@ -7189,9 +6586,6 @@
       <c r="C203" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D203" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F203" s="6" t="s">
         <v>37</v>
       </c>
@@ -7206,9 +6600,6 @@
       <c r="C204" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D204" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F204" s="6" t="s">
         <v>67</v>
       </c>
@@ -7223,9 +6614,6 @@
       <c r="C205" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D205" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F205" s="6" t="s">
         <v>37</v>
       </c>
@@ -7240,9 +6628,6 @@
       <c r="C206" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D206" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F206" s="6" t="s">
         <v>37</v>
       </c>
@@ -7257,9 +6642,6 @@
       <c r="C207" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D207" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F207" s="6" t="s">
         <v>12</v>
       </c>
@@ -7274,9 +6656,6 @@
       <c r="C208" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D208" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F208" s="6" t="s">
         <v>37</v>
       </c>
@@ -7291,9 +6670,6 @@
       <c r="C209" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D209" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F209" s="6" t="s">
         <v>12</v>
       </c>
@@ -7308,9 +6684,6 @@
       <c r="C210" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D210" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F210" s="6" t="s">
         <v>37</v>
       </c>
@@ -7325,9 +6698,6 @@
       <c r="C211" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D211" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F211" s="6" t="s">
         <v>67</v>
       </c>
@@ -7342,9 +6712,6 @@
       <c r="C212" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D212" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F212" s="6" t="s">
         <v>376</v>
       </c>
@@ -7356,9 +6723,6 @@
       <c r="C213" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D213" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F213" s="6" t="s">
         <v>379</v>
       </c>
@@ -7370,9 +6734,6 @@
       <c r="C214" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D214" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F214" s="6" t="s">
         <v>37</v>
       </c>
@@ -7387,9 +6748,6 @@
       <c r="C215" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D215" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F215" s="6" t="s">
         <v>37</v>
       </c>
@@ -7407,9 +6765,6 @@
       <c r="C216" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D216" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F216" s="6" t="s">
         <v>37</v>
       </c>
@@ -7424,9 +6779,6 @@
       <c r="C217" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D217" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F217" s="6" t="s">
         <v>12</v>
       </c>
@@ -7441,9 +6793,6 @@
       <c r="C218" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D218" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F218" s="6" t="s">
         <v>37</v>
       </c>
@@ -7461,9 +6810,6 @@
       <c r="C219" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D219" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F219" s="6" t="s">
         <v>445</v>
       </c>
@@ -7478,9 +6824,6 @@
       <c r="C220" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D220" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F220" s="6" t="s">
         <v>445</v>
       </c>
@@ -7495,9 +6838,6 @@
       <c r="C221" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D221" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F221" s="6" t="s">
         <v>446</v>
       </c>
@@ -7512,9 +6852,6 @@
       <c r="C222" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D222" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F222" s="6" t="s">
         <v>446</v>
       </c>
@@ -7526,9 +6863,6 @@
       <c r="C223" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D223" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F223" s="6" t="s">
         <v>449</v>
       </c>
@@ -7540,9 +6874,6 @@
       <c r="C224" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D224" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F224" s="6" t="s">
         <v>37</v>
       </c>
@@ -7557,9 +6888,6 @@
       <c r="C225" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D225" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F225" s="6" t="s">
         <v>12</v>
       </c>
@@ -7574,9 +6902,6 @@
       <c r="C226" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D226" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F226" s="6" t="s">
         <v>67</v>
       </c>
@@ -7591,9 +6916,6 @@
       <c r="C227" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D227" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F227" s="6" t="s">
         <v>67</v>
       </c>
@@ -7608,9 +6930,6 @@
       <c r="C228" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D228" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F228" s="6" t="s">
         <v>37</v>
       </c>
@@ -7628,9 +6947,6 @@
       <c r="C229" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D229" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F229" s="6" t="s">
         <v>483</v>
       </c>
@@ -7645,9 +6961,6 @@
       <c r="C230" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D230" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F230" s="6" t="s">
         <v>12</v>
       </c>
@@ -7662,9 +6975,6 @@
       <c r="C231" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D231" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F231" s="6" t="s">
         <v>488</v>
       </c>
@@ -7676,9 +6986,6 @@
       <c r="C232" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D232" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F232" s="6" t="s">
         <v>37</v>
       </c>
@@ -7693,9 +7000,6 @@
       <c r="C233" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D233" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F233" s="6" t="s">
         <v>37</v>
       </c>
@@ -7710,9 +7014,6 @@
       <c r="C234" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D234" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F234" s="6" t="s">
         <v>37</v>
       </c>
@@ -7727,9 +7028,6 @@
       <c r="C235" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D235" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F235" s="6" t="s">
         <v>17</v>
       </c>
@@ -7744,9 +7042,6 @@
       <c r="C236" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D236" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F236" s="6" t="s">
         <v>37</v>
       </c>
@@ -7761,9 +7056,6 @@
       <c r="C237" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D237" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F237" s="6" t="s">
         <v>37</v>
       </c>
@@ -7778,9 +7070,6 @@
       <c r="C238" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D238" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F238" s="6" t="s">
         <v>37</v>
       </c>
@@ -7795,9 +7084,6 @@
       <c r="C239" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D239" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F239" s="6" t="s">
         <v>37</v>
       </c>
@@ -7812,9 +7098,6 @@
       <c r="C240" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D240" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F240" s="6" t="s">
         <v>12</v>
       </c>
@@ -7829,9 +7112,6 @@
       <c r="C241" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D241" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F241" s="6" t="s">
         <v>12</v>
       </c>
@@ -7846,9 +7126,6 @@
       <c r="C242" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D242" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F242" s="6" t="s">
         <v>37</v>
       </c>
@@ -7863,9 +7140,6 @@
       <c r="C243" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D243" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F243" s="6" t="s">
         <v>37</v>
       </c>
@@ -7880,9 +7154,6 @@
       <c r="C244" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D244" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F244" s="6" t="s">
         <v>509</v>
       </c>
@@ -7897,9 +7168,6 @@
       <c r="C245" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D245" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F245" s="6" t="s">
         <v>17</v>
       </c>
@@ -7914,9 +7182,6 @@
       <c r="C246" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D246" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F246" s="6" t="s">
         <v>17</v>
       </c>
@@ -7931,9 +7196,6 @@
       <c r="C247" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D247" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F247" s="6" t="s">
         <v>248</v>
       </c>
@@ -7948,9 +7210,6 @@
       <c r="C248" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D248" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F248" s="6" t="s">
         <v>248</v>
       </c>
@@ -7965,9 +7224,6 @@
       <c r="C249" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D249" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F249" s="6" t="s">
         <v>67</v>
       </c>
@@ -7982,9 +7238,6 @@
       <c r="C250" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D250" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F250" s="6" t="s">
         <v>67</v>
       </c>
@@ -7999,9 +7252,6 @@
       <c r="C251" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D251" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F251" s="6" t="s">
         <v>67</v>
       </c>
@@ -8016,9 +7266,6 @@
       <c r="C252" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D252" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F252" s="6" t="s">
         <v>67</v>
       </c>
@@ -8033,9 +7280,6 @@
       <c r="C253" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D253" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F253" s="6" t="s">
         <v>12</v>
       </c>
@@ -8050,9 +7294,6 @@
       <c r="C254" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D254" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F254" s="6" t="s">
         <v>12</v>
       </c>
@@ -8070,9 +7311,6 @@
       <c r="C255" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D255" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F255" s="6" t="s">
         <v>523</v>
       </c>
@@ -8084,9 +7322,6 @@
       <c r="C256" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D256" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F256" s="6" t="s">
         <v>523</v>
       </c>
@@ -8098,9 +7333,6 @@
       <c r="C257" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D257" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F257" s="6" t="s">
         <v>37</v>
       </c>
@@ -8115,9 +7347,6 @@
       <c r="C258" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D258" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F258" s="6" t="s">
         <v>37</v>
       </c>
@@ -8132,9 +7361,6 @@
       <c r="C259" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D259" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F259" s="6" t="s">
         <v>37</v>
       </c>
@@ -8152,9 +7378,6 @@
       <c r="C260" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D260" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F260" s="6" t="s">
         <v>37</v>
       </c>
@@ -8169,9 +7392,6 @@
       <c r="C261" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D261" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F261" s="6" t="s">
         <v>37</v>
       </c>
@@ -8186,9 +7406,6 @@
       <c r="C262" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D262" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F262" s="6" t="s">
         <v>37</v>
       </c>
@@ -8203,9 +7420,6 @@
       <c r="C263" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D263" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F263" s="6" t="s">
         <v>535</v>
       </c>
@@ -8217,9 +7431,6 @@
       <c r="C264" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D264" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F264" s="6" t="s">
         <v>37</v>
       </c>
@@ -8234,9 +7445,6 @@
       <c r="C265" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D265" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F265" s="6" t="s">
         <v>37</v>
       </c>
@@ -8251,9 +7459,6 @@
       <c r="C266" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D266" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F266" s="6" t="s">
         <v>37</v>
       </c>
@@ -8271,9 +7476,6 @@
       <c r="C267" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D267" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F267" s="6" t="s">
         <v>509</v>
       </c>
@@ -8288,9 +7490,6 @@
       <c r="C268" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D268" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F268" s="6" t="s">
         <v>37</v>
       </c>
@@ -8305,9 +7504,6 @@
       <c r="C269" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D269" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F269" s="6" t="s">
         <v>248</v>
       </c>
@@ -8322,9 +7518,6 @@
       <c r="C270" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D270" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F270" s="6" t="s">
         <v>548</v>
       </c>
@@ -8336,9 +7529,6 @@
       <c r="C271" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D271" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F271" s="6" t="s">
         <v>37</v>
       </c>
@@ -8353,9 +7543,6 @@
       <c r="C272" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D272" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F272" s="6" t="s">
         <v>552</v>
       </c>
@@ -8367,9 +7554,6 @@
       <c r="C273" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D273" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F273" s="6" t="s">
         <v>37</v>
       </c>
@@ -8384,9 +7568,6 @@
       <c r="C274" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D274" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F274" s="6" t="s">
         <v>37</v>
       </c>
@@ -8401,9 +7582,6 @@
       <c r="C275" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D275" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F275" s="6" t="s">
         <v>37</v>
       </c>
@@ -8418,9 +7596,6 @@
       <c r="C276" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D276" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F276" s="6" t="s">
         <v>535</v>
       </c>
@@ -8432,9 +7607,6 @@
       <c r="C277" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D277" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F277" s="6" t="s">
         <v>67</v>
       </c>
@@ -8449,9 +7621,6 @@
       <c r="C278" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D278" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F278" s="6" t="s">
         <v>37</v>
       </c>
@@ -8466,9 +7635,6 @@
       <c r="C279" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D279" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F279" s="6" t="s">
         <v>37</v>
       </c>
@@ -8483,9 +7649,6 @@
       <c r="C280" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D280" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F280" s="6" t="s">
         <v>37</v>
       </c>
@@ -8500,9 +7663,6 @@
       <c r="C281" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D281" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F281" s="6" t="s">
         <v>12</v>
       </c>
@@ -8517,9 +7677,6 @@
       <c r="C282" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D282" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F282" s="6" t="s">
         <v>569</v>
       </c>
@@ -8531,9 +7688,6 @@
       <c r="C283" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D283" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F283" s="6" t="s">
         <v>67</v>
       </c>
@@ -8548,9 +7702,6 @@
       <c r="C284" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D284" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F284" s="6" t="s">
         <v>569</v>
       </c>
@@ -8562,9 +7713,6 @@
       <c r="C285" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D285" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F285" s="6" t="s">
         <v>573</v>
       </c>
@@ -8579,9 +7727,6 @@
       <c r="C286" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D286" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F286" s="6" t="s">
         <v>573</v>
       </c>
@@ -8593,9 +7738,6 @@
       <c r="C287" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D287" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F287" s="6" t="s">
         <v>37</v>
       </c>
@@ -8610,9 +7752,6 @@
       <c r="C288" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D288" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F288" s="6" t="s">
         <v>248</v>
       </c>
@@ -8627,9 +7766,6 @@
       <c r="C289" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D289" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F289" s="6" t="s">
         <v>12</v>
       </c>
@@ -8644,9 +7780,6 @@
       <c r="C290" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D290" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F290" s="6" t="s">
         <v>12</v>
       </c>
@@ -8661,9 +7794,6 @@
       <c r="C291" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D291" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F291" s="6" t="s">
         <v>12</v>
       </c>
@@ -8681,9 +7811,6 @@
       <c r="C292" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D292" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F292" s="6" t="s">
         <v>12</v>
       </c>
@@ -8698,9 +7825,6 @@
       <c r="C293" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D293" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F293" s="6" t="s">
         <v>37</v>
       </c>
@@ -8715,9 +7839,6 @@
       <c r="C294" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D294" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F294" s="6" t="s">
         <v>592</v>
       </c>
@@ -8729,9 +7850,6 @@
       <c r="C295" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D295" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F295" s="6" t="s">
         <v>592</v>
       </c>
@@ -8743,9 +7861,6 @@
       <c r="C296" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D296" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F296" s="6" t="s">
         <v>37</v>
       </c>
@@ -8763,9 +7878,6 @@
       <c r="C297" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D297" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F297" s="6" t="s">
         <v>595</v>
       </c>
@@ -8777,9 +7889,6 @@
       <c r="C298" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D298" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F298" s="6" t="s">
         <v>67</v>
       </c>
@@ -8794,9 +7903,6 @@
       <c r="C299" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D299" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F299" s="6" t="s">
         <v>598</v>
       </c>
@@ -8811,9 +7917,6 @@
       <c r="C300" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D300" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F300" s="6" t="s">
         <v>37</v>
       </c>
@@ -8831,9 +7934,6 @@
       <c r="C301" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D301" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F301" s="6" t="s">
         <v>37</v>
       </c>
@@ -8848,9 +7948,6 @@
       <c r="C302" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D302" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F302" s="6" t="s">
         <v>363</v>
       </c>
@@ -8865,9 +7962,6 @@
       <c r="C303" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D303" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F303" s="6" t="s">
         <v>363</v>
       </c>
@@ -8882,9 +7976,6 @@
       <c r="C304" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D304" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F304" s="6" t="s">
         <v>363</v>
       </c>
@@ -8899,9 +7990,6 @@
       <c r="C305" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D305" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F305" s="6" t="s">
         <v>608</v>
       </c>
@@ -8913,9 +8001,6 @@
       <c r="C306" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D306" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F306" s="6" t="s">
         <v>608</v>
       </c>
@@ -8927,9 +8012,6 @@
       <c r="C307" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D307" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F307" s="6" t="s">
         <v>37</v>
       </c>
@@ -8944,9 +8026,6 @@
       <c r="C308" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D308" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F308" s="6" t="s">
         <v>37</v>
       </c>
@@ -8961,9 +8040,6 @@
       <c r="C309" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D309" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F309" s="6" t="s">
         <v>12</v>
       </c>
@@ -8978,9 +8054,6 @@
       <c r="C310" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D310" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F310" s="6" t="s">
         <v>12</v>
       </c>
@@ -8995,9 +8068,6 @@
       <c r="C311" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D311" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F311" s="6" t="s">
         <v>12</v>
       </c>
@@ -9012,9 +8082,6 @@
       <c r="C312" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D312" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F312" s="6" t="s">
         <v>12</v>
       </c>
@@ -9029,9 +8096,6 @@
       <c r="C313" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D313" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F313" s="6" t="s">
         <v>12</v>
       </c>
@@ -9046,9 +8110,6 @@
       <c r="C314" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D314" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F314" s="6" t="s">
         <v>159</v>
       </c>
@@ -9063,9 +8124,6 @@
       <c r="C315" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D315" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F315" s="6" t="s">
         <v>12</v>
       </c>
@@ -9080,9 +8138,6 @@
       <c r="C316" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D316" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F316" s="6" t="s">
         <v>37</v>
       </c>
@@ -9097,9 +8152,6 @@
       <c r="C317" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D317" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F317" s="6" t="s">
         <v>37</v>
       </c>
@@ -9114,9 +8166,6 @@
       <c r="C318" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D318" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F318" s="6" t="s">
         <v>37</v>
       </c>
@@ -9131,9 +8180,6 @@
       <c r="C319" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D319" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F319" s="6" t="s">
         <v>37</v>
       </c>
@@ -9148,9 +8194,6 @@
       <c r="C320" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D320" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F320" s="6" t="s">
         <v>37</v>
       </c>
@@ -9165,9 +8208,6 @@
       <c r="C321" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D321" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F321" s="6" t="s">
         <v>12</v>
       </c>
@@ -9182,9 +8222,6 @@
       <c r="C322" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D322" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F322" s="6" t="s">
         <v>12</v>
       </c>
@@ -9199,9 +8236,6 @@
       <c r="C323" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D323" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F323" s="6" t="s">
         <v>12</v>
       </c>
@@ -9216,9 +8250,6 @@
       <c r="C324" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D324" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F324" s="6" t="s">
         <v>638</v>
       </c>
@@ -9230,9 +8261,6 @@
       <c r="C325" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D325" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F325" s="6" t="s">
         <v>248</v>
       </c>
@@ -9247,9 +8275,6 @@
       <c r="C326" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D326" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F326" s="6" t="s">
         <v>12</v>
       </c>
@@ -9264,9 +8289,6 @@
       <c r="C327" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D327" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F327" s="6" t="s">
         <v>248</v>
       </c>
@@ -9281,9 +8303,6 @@
       <c r="C328" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D328" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F328" s="6" t="s">
         <v>12</v>
       </c>
@@ -9298,9 +8317,6 @@
       <c r="C329" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D329" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F329" s="6" t="s">
         <v>12</v>
       </c>
@@ -9318,9 +8334,6 @@
       <c r="C330" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D330" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F330" s="6" t="s">
         <v>12</v>
       </c>
@@ -9335,9 +8348,6 @@
       <c r="C331" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D331" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F331" s="6" t="s">
         <v>12</v>
       </c>
@@ -9352,9 +8362,6 @@
       <c r="C332" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D332" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F332" s="6" t="s">
         <v>12</v>
       </c>
@@ -9369,9 +8376,6 @@
       <c r="C333" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D333" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F333" s="6" t="s">
         <v>12</v>
       </c>
@@ -9386,9 +8390,6 @@
       <c r="C334" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D334" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F334" s="6" t="s">
         <v>12</v>
       </c>
@@ -9403,9 +8404,6 @@
       <c r="C335" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D335" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F335" s="6" t="s">
         <v>12</v>
       </c>
@@ -9420,9 +8418,6 @@
       <c r="C336" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D336" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F336" s="6" t="s">
         <v>12</v>
       </c>
@@ -9437,9 +8432,6 @@
       <c r="C337" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D337" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F337" s="6" t="s">
         <v>655</v>
       </c>
@@ -9451,9 +8443,6 @@
       <c r="C338" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D338" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F338" s="6" t="s">
         <v>12</v>
       </c>
@@ -9471,9 +8460,6 @@
       <c r="C339" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D339" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F339" s="6" t="s">
         <v>658</v>
       </c>
@@ -9485,9 +8471,6 @@
       <c r="C340" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D340" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F340" s="6" t="s">
         <v>12</v>
       </c>
@@ -9502,9 +8485,6 @@
       <c r="C341" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D341" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F341" s="6" t="s">
         <v>248</v>
       </c>
@@ -9522,9 +8502,6 @@
       <c r="C342" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D342" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F342" s="6" t="s">
         <v>675</v>
       </c>
@@ -9536,9 +8513,6 @@
       <c r="C343" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D343" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F343" s="6" t="s">
         <v>37</v>
       </c>
@@ -9553,9 +8527,6 @@
       <c r="C344" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D344" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F344" s="6" t="s">
         <v>37</v>
       </c>
@@ -9570,9 +8541,6 @@
       <c r="C345" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D345" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F345" s="6" t="s">
         <v>248</v>
       </c>
@@ -9590,9 +8558,6 @@
       <c r="C346" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D346" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F346" s="6" t="s">
         <v>12</v>
       </c>
@@ -9607,9 +8572,6 @@
       <c r="C347" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D347" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F347" s="6" t="s">
         <v>248</v>
       </c>
@@ -9624,9 +8586,6 @@
       <c r="C348" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D348" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F348" s="6" t="s">
         <v>12</v>
       </c>
@@ -9641,9 +8600,6 @@
       <c r="C349" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D349" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F349" s="6" t="s">
         <v>248</v>
       </c>
@@ -9658,9 +8614,6 @@
       <c r="C350" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D350" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F350" s="6" t="s">
         <v>248</v>
       </c>
@@ -9675,9 +8628,6 @@
       <c r="C351" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D351" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F351" s="6" t="s">
         <v>248</v>
       </c>
@@ -9692,9 +8642,6 @@
       <c r="C352" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D352" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F352" s="6" t="s">
         <v>248</v>
       </c>
@@ -9709,9 +8656,6 @@
       <c r="C353" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D353" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F353" s="6" t="s">
         <v>248</v>
       </c>
@@ -9726,9 +8670,6 @@
       <c r="C354" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D354" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F354" s="6" t="s">
         <v>248</v>
       </c>
@@ -9743,9 +8684,6 @@
       <c r="C355" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D355" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F355" s="6" t="s">
         <v>248</v>
       </c>
@@ -9760,9 +8698,6 @@
       <c r="C356" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D356" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F356" s="6" t="s">
         <v>248</v>
       </c>
@@ -9777,9 +8712,6 @@
       <c r="C357" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D357" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F357" s="6" t="s">
         <v>248</v>
       </c>
@@ -9794,9 +8726,6 @@
       <c r="C358" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D358" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F358" s="6" t="s">
         <v>248</v>
       </c>
@@ -9811,9 +8740,6 @@
       <c r="C359" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D359" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F359" s="6" t="s">
         <v>248</v>
       </c>
@@ -9828,9 +8754,6 @@
       <c r="C360" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D360" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F360" s="6" t="s">
         <v>248</v>
       </c>
@@ -9845,9 +8768,6 @@
       <c r="C361" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D361" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F361" s="6" t="s">
         <v>248</v>
       </c>
@@ -9862,9 +8782,6 @@
       <c r="C362" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D362" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F362" s="6" t="s">
         <v>248</v>
       </c>
@@ -9879,9 +8796,6 @@
       <c r="C363" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D363" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F363" s="6" t="s">
         <v>248</v>
       </c>
@@ -9896,9 +8810,6 @@
       <c r="C364" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D364" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F364" s="6" t="s">
         <v>248</v>
       </c>
@@ -9913,9 +8824,6 @@
       <c r="C365" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D365" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F365" s="6" t="s">
         <v>248</v>
       </c>
@@ -9930,9 +8838,6 @@
       <c r="C366" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D366" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F366" s="6" t="s">
         <v>248</v>
       </c>
@@ -9947,9 +8852,6 @@
       <c r="C367" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D367" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F367" s="6" t="s">
         <v>248</v>
       </c>
@@ -9964,9 +8866,6 @@
       <c r="C368" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D368" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F368" s="6" t="s">
         <v>248</v>
       </c>
@@ -9981,9 +8880,6 @@
       <c r="C369" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D369" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F369" s="6" t="s">
         <v>248</v>
       </c>
@@ -9998,9 +8894,6 @@
       <c r="C370" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D370" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F370" s="6" t="s">
         <v>248</v>
       </c>
@@ -10015,9 +8908,6 @@
       <c r="C371" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D371" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F371" s="6" t="s">
         <v>248</v>
       </c>
@@ -10032,9 +8922,6 @@
       <c r="C372" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D372" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F372" s="6" t="s">
         <v>248</v>
       </c>
@@ -10052,9 +8939,6 @@
       <c r="C373" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D373" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F373" s="6" t="s">
         <v>724</v>
       </c>
@@ -10066,9 +8950,6 @@
       <c r="C374" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D374" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F374" s="6" t="s">
         <v>12</v>
       </c>
@@ -10086,9 +8967,6 @@
       <c r="C375" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D375" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F375" s="6" t="s">
         <v>12</v>
       </c>
@@ -10103,9 +8981,6 @@
       <c r="C376" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D376" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F376" s="6" t="s">
         <v>67</v>
       </c>
@@ -10120,9 +8995,6 @@
       <c r="C377" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D377" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F377" s="6" t="s">
         <v>737</v>
       </c>
@@ -10134,9 +9006,6 @@
       <c r="C378" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D378" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F378" s="6" t="s">
         <v>739</v>
       </c>
@@ -10148,9 +9017,6 @@
       <c r="C379" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D379" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F379" s="6" t="s">
         <v>739</v>
       </c>
@@ -10162,9 +9028,6 @@
       <c r="C380" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D380" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F380" s="6" t="s">
         <v>739</v>
       </c>
@@ -10176,9 +9039,6 @@
       <c r="C381" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D381" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F381" s="6" t="s">
         <v>739</v>
       </c>
@@ -10193,9 +9053,6 @@
       <c r="C382" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D382" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F382" s="6" t="s">
         <v>37</v>
       </c>
@@ -10213,9 +9070,6 @@
       <c r="C383" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D383" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F383" s="6" t="s">
         <v>37</v>
       </c>
@@ -10230,9 +9084,6 @@
       <c r="C384" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D384" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F384" s="6" t="s">
         <v>37</v>
       </c>
@@ -10247,9 +9098,6 @@
       <c r="C385" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D385" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F385" s="6" t="s">
         <v>37</v>
       </c>
@@ -10264,9 +9112,6 @@
       <c r="C386" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D386" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F386" s="6" t="s">
         <v>37</v>
       </c>
@@ -10281,9 +9126,6 @@
       <c r="C387" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D387" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F387" s="6" t="s">
         <v>764</v>
       </c>
@@ -10298,9 +9140,6 @@
       <c r="C388" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D388" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F388" s="6" t="s">
         <v>764</v>
       </c>
@@ -10312,9 +9151,6 @@
       <c r="C389" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D389" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F389" s="6" t="s">
         <v>768</v>
       </c>
@@ -10329,9 +9165,6 @@
       <c r="C390" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D390" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F390" s="6" t="s">
         <v>37</v>
       </c>
@@ -10349,9 +9182,6 @@
       <c r="C391" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D391" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F391" s="6" t="s">
         <v>774</v>
       </c>
@@ -10363,9 +9193,6 @@
       <c r="C392" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D392" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F392" s="6" t="s">
         <v>37</v>
       </c>
@@ -10380,9 +9207,6 @@
       <c r="C393" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D393" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F393" s="6" t="s">
         <v>248</v>
       </c>
@@ -10397,9 +9221,6 @@
       <c r="C394" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D394" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F394" s="6" t="s">
         <v>37</v>
       </c>
@@ -10414,9 +9235,6 @@
       <c r="C395" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D395" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F395" s="6" t="s">
         <v>12</v>
       </c>
@@ -10434,9 +9252,6 @@
       <c r="C396" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D396" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F396" s="6" t="s">
         <v>782</v>
       </c>
@@ -10451,9 +9266,6 @@
       <c r="C397" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D397" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F397" s="6" t="s">
         <v>782</v>
       </c>
@@ -10465,9 +9277,6 @@
       <c r="C398" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D398" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F398" s="6" t="s">
         <v>37</v>
       </c>
@@ -10482,9 +9291,6 @@
       <c r="C399" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D399" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F399" s="6" t="s">
         <v>37</v>
       </c>
@@ -10499,9 +9305,6 @@
       <c r="C400" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D400" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F400" s="6" t="s">
         <v>790</v>
       </c>
@@ -10513,9 +9316,6 @@
       <c r="C401" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D401" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F401" s="6" t="s">
         <v>790</v>
       </c>
@@ -10527,9 +9327,6 @@
       <c r="C402" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D402" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F402" s="6" t="s">
         <v>37</v>
       </c>
@@ -10544,9 +9341,6 @@
       <c r="C403" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D403" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F403" s="6" t="s">
         <v>37</v>
       </c>
@@ -10561,9 +9355,6 @@
       <c r="C404" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D404" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F404" s="6" t="s">
         <v>37</v>
       </c>
@@ -10578,9 +9369,6 @@
       <c r="C405" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D405" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F405" s="6" t="s">
         <v>764</v>
       </c>
@@ -10592,9 +9380,6 @@
       <c r="C406" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D406" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F406" s="6" t="s">
         <v>37</v>
       </c>
@@ -10609,9 +9394,6 @@
       <c r="C407" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D407" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F407" s="6" t="s">
         <v>12</v>
       </c>
@@ -10626,9 +9408,6 @@
       <c r="C408" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D408" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F408" s="6" t="s">
         <v>12</v>
       </c>
@@ -10643,9 +9422,6 @@
       <c r="C409" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D409" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F409" s="6" t="s">
         <v>12</v>
       </c>
@@ -10660,9 +9436,6 @@
       <c r="C410" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D410" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F410" s="6" t="s">
         <v>37</v>
       </c>
@@ -10677,9 +9450,6 @@
       <c r="C411" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D411" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F411" s="6" t="s">
         <v>12</v>
       </c>
@@ -10694,9 +9464,6 @@
       <c r="C412" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D412" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F412" s="6" t="s">
         <v>816</v>
       </c>
@@ -10708,9 +9475,6 @@
       <c r="C413" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D413" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F413" s="6" t="s">
         <v>12</v>
       </c>
@@ -10725,9 +9489,6 @@
       <c r="C414" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D414" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F414" s="6" t="s">
         <v>248</v>
       </c>
@@ -10745,9 +9506,6 @@
       <c r="C415" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D415" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F415" s="6" t="s">
         <v>822</v>
       </c>
@@ -10759,9 +9517,6 @@
       <c r="C416" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D416" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F416" s="6" t="s">
         <v>248</v>
       </c>
@@ -10776,9 +9531,6 @@
       <c r="C417" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D417" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F417" s="6" t="s">
         <v>248</v>
       </c>
@@ -10793,9 +9545,6 @@
       <c r="C418" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D418" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F418" s="6" t="s">
         <v>248</v>
       </c>
@@ -10810,9 +9559,6 @@
       <c r="C419" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D419" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F419" s="6" t="s">
         <v>248</v>
       </c>
@@ -10827,9 +9573,6 @@
       <c r="C420" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D420" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F420" s="6" t="s">
         <v>248</v>
       </c>
@@ -10847,9 +9590,6 @@
       <c r="C421" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D421" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F421" s="6" t="s">
         <v>832</v>
       </c>
@@ -10864,9 +9604,6 @@
       <c r="C422" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D422" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F422" s="6" t="s">
         <v>833</v>
       </c>
@@ -10881,9 +9618,6 @@
       <c r="C423" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D423" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F423" s="6" t="s">
         <v>836</v>
       </c>
@@ -10898,9 +9632,6 @@
       <c r="C424" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D424" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F424" s="6" t="s">
         <v>17</v>
       </c>
@@ -10915,9 +9646,6 @@
       <c r="C425" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D425" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F425" s="6" t="s">
         <v>12</v>
       </c>
@@ -10932,9 +9660,6 @@
       <c r="C426" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D426" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F426" s="6" t="s">
         <v>12</v>
       </c>
@@ -10949,9 +9674,6 @@
       <c r="C427" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D427" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F427" s="6" t="s">
         <v>12</v>
       </c>
@@ -10966,9 +9688,6 @@
       <c r="C428" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D428" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F428" s="6" t="s">
         <v>12</v>
       </c>
@@ -10983,9 +9702,6 @@
       <c r="C429" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D429" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F429" s="6" t="s">
         <v>12</v>
       </c>
@@ -11003,9 +9719,6 @@
       <c r="C430" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D430" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F430" s="6" t="s">
         <v>12</v>
       </c>
@@ -11023,9 +9736,6 @@
       <c r="C431" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D431" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F431" s="6" t="s">
         <v>849</v>
       </c>
@@ -11037,9 +9747,6 @@
       <c r="C432" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D432" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F432" s="6" t="s">
         <v>67</v>
       </c>
@@ -11054,9 +9761,6 @@
       <c r="C433" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D433" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F433" s="6" t="s">
         <v>853</v>
       </c>
@@ -11071,9 +9775,6 @@
       <c r="C434" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D434" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F434" s="6" t="s">
         <v>853</v>
       </c>
@@ -11091,9 +9792,6 @@
       <c r="C435" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D435" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F435" s="6" t="s">
         <v>26</v>
       </c>
@@ -11108,9 +9806,6 @@
       <c r="C436" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D436" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F436" s="6" t="s">
         <v>12</v>
       </c>
@@ -11125,9 +9820,6 @@
       <c r="C437" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D437" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F437" s="6" t="s">
         <v>12</v>
       </c>
@@ -11142,9 +9834,6 @@
       <c r="C438" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D438" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F438" s="6" t="s">
         <v>37</v>
       </c>
@@ -11159,9 +9848,6 @@
       <c r="C439" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D439" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F439" s="6" t="s">
         <v>37</v>
       </c>
@@ -11176,9 +9862,6 @@
       <c r="C440" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D440" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F440" s="6" t="s">
         <v>12</v>
       </c>
@@ -11193,9 +9876,6 @@
       <c r="C441" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D441" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F441" s="6" t="s">
         <v>12</v>
       </c>
@@ -11213,9 +9893,6 @@
       <c r="C442" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D442" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F442" s="6" t="s">
         <v>869</v>
       </c>
@@ -11230,9 +9907,6 @@
       <c r="C443" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D443" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F443" s="6" t="s">
         <v>37</v>
       </c>
@@ -11250,9 +9924,6 @@
       <c r="C444" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D444" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F444" s="6" t="s">
         <v>869</v>
       </c>
@@ -11264,9 +9935,6 @@
       <c r="C445" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D445" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F445" s="6" t="s">
         <v>248</v>
       </c>
@@ -11281,9 +9949,6 @@
       <c r="C446" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D446" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F446" s="6" t="s">
         <v>12</v>
       </c>
@@ -11298,9 +9963,6 @@
       <c r="C447" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D447" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F447" s="6" t="s">
         <v>768</v>
       </c>
@@ -11312,9 +9974,6 @@
       <c r="C448" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D448" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F448" s="6" t="s">
         <v>248</v>
       </c>
@@ -11329,9 +9988,6 @@
       <c r="C449" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D449" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F449" s="6" t="s">
         <v>26</v>
       </c>
@@ -11346,9 +10002,6 @@
       <c r="C450" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D450" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F450" s="6" t="s">
         <v>26</v>
       </c>
@@ -11363,9 +10016,6 @@
       <c r="C451" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D451" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F451" s="6" t="s">
         <v>881</v>
       </c>
@@ -11377,9 +10027,6 @@
       <c r="C452" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D452" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F452" s="6" t="s">
         <v>881</v>
       </c>
@@ -11391,9 +10038,6 @@
       <c r="C453" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D453" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F453" s="6" t="s">
         <v>881</v>
       </c>
@@ -11405,9 +10049,6 @@
       <c r="C454" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D454" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F454" s="6" t="s">
         <v>881</v>
       </c>
@@ -11419,9 +10060,6 @@
       <c r="C455" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D455" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F455" s="6" t="s">
         <v>881</v>
       </c>
@@ -11433,9 +10071,6 @@
       <c r="C456" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D456" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F456" s="6" t="s">
         <v>881</v>
       </c>
@@ -11447,9 +10082,6 @@
       <c r="C457" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D457" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F457" s="6" t="s">
         <v>881</v>
       </c>
@@ -11461,9 +10093,6 @@
       <c r="C458" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D458" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F458" s="6" t="s">
         <v>881</v>
       </c>
@@ -11475,9 +10104,6 @@
       <c r="C459" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D459" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F459" s="6" t="s">
         <v>881</v>
       </c>
@@ -11489,9 +10115,6 @@
       <c r="C460" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D460" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F460" s="6" t="s">
         <v>248</v>
       </c>
@@ -11506,9 +10129,6 @@
       <c r="C461" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D461" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F461" s="6" t="s">
         <v>248</v>
       </c>
@@ -11523,9 +10143,6 @@
       <c r="C462" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D462" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F462" s="6" t="s">
         <v>248</v>
       </c>
@@ -11540,9 +10157,6 @@
       <c r="C463" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D463" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F463" s="6" t="s">
         <v>248</v>
       </c>
@@ -11557,9 +10171,6 @@
       <c r="C464" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D464" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F464" s="6" t="s">
         <v>248</v>
       </c>
@@ -11574,9 +10185,6 @@
       <c r="C465" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D465" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F465" s="6" t="s">
         <v>248</v>
       </c>
@@ -11591,9 +10199,6 @@
       <c r="C466" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D466" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F466" s="6" t="s">
         <v>248</v>
       </c>
@@ -11608,9 +10213,6 @@
       <c r="C467" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D467" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F467" s="6" t="s">
         <v>248</v>
       </c>
@@ -11625,9 +10227,6 @@
       <c r="C468" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D468" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F468" s="6" t="s">
         <v>248</v>
       </c>
@@ -11642,9 +10241,6 @@
       <c r="C469" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D469" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F469" s="6" t="s">
         <v>248</v>
       </c>
@@ -11659,9 +10255,6 @@
       <c r="C470" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D470" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F470" s="6" t="s">
         <v>248</v>
       </c>
@@ -11676,9 +10269,6 @@
       <c r="C471" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D471" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F471" s="6" t="s">
         <v>248</v>
       </c>
@@ -11693,9 +10283,6 @@
       <c r="C472" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D472" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F472" s="6" t="s">
         <v>37</v>
       </c>
@@ -11710,9 +10297,6 @@
       <c r="C473" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D473" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F473" s="6" t="s">
         <v>12</v>
       </c>
@@ -11727,9 +10311,6 @@
       <c r="C474" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D474" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F474" s="6" t="s">
         <v>509</v>
       </c>
@@ -11744,9 +10325,6 @@
       <c r="C475" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D475" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F475" s="6" t="s">
         <v>509</v>
       </c>
@@ -11761,9 +10339,6 @@
       <c r="C476" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D476" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F476" s="6" t="s">
         <v>509</v>
       </c>
@@ -11778,9 +10353,6 @@
       <c r="C477" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D477" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F477" s="6" t="s">
         <v>37</v>
       </c>
@@ -11795,9 +10367,6 @@
       <c r="C478" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D478" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F478" s="6" t="s">
         <v>37</v>
       </c>
@@ -11812,9 +10381,6 @@
       <c r="C479" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D479" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F479" s="6" t="s">
         <v>37</v>
       </c>
@@ -11829,9 +10395,6 @@
       <c r="C480" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D480" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F480" s="6" t="s">
         <v>919</v>
       </c>
@@ -11843,9 +10406,6 @@
       <c r="C481" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D481" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F481" s="6" t="s">
         <v>920</v>
       </c>
@@ -11857,9 +10417,6 @@
       <c r="C482" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D482" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F482" s="6" t="s">
         <v>922</v>
       </c>
@@ -11871,9 +10428,6 @@
       <c r="C483" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D483" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F483" s="6" t="s">
         <v>248</v>
       </c>
@@ -11885,9 +10439,6 @@
       <c r="C484" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D484" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F484" s="6" t="s">
         <v>248</v>
       </c>
@@ -11899,9 +10450,6 @@
       <c r="C485" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D485" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F485" s="6" t="s">
         <v>248</v>
       </c>
@@ -11913,9 +10461,6 @@
       <c r="C486" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D486" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F486" s="6" t="s">
         <v>248</v>
       </c>
@@ -11927,9 +10472,6 @@
       <c r="C487" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D487" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F487" s="6" t="s">
         <v>248</v>
       </c>
@@ -11941,9 +10483,6 @@
       <c r="C488" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D488" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F488" s="6" t="s">
         <v>248</v>
       </c>
@@ -11955,9 +10494,6 @@
       <c r="C489" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D489" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F489" s="6" t="s">
         <v>173</v>
       </c>
@@ -11972,9 +10508,6 @@
       <c r="C490" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D490" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F490" s="6" t="s">
         <v>37</v>
       </c>
@@ -11989,9 +10522,6 @@
       <c r="C491" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D491" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F491" s="6" t="s">
         <v>37</v>
       </c>
@@ -12006,9 +10536,6 @@
       <c r="C492" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D492" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F492" s="6" t="s">
         <v>935</v>
       </c>
@@ -12023,9 +10550,6 @@
       <c r="C493" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D493" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F493" s="6" t="s">
         <v>822</v>
       </c>
@@ -12037,9 +10561,6 @@
       <c r="C494" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D494" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F494" s="6" t="s">
         <v>37</v>
       </c>
@@ -12057,9 +10578,6 @@
       <c r="C495" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D495" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F495" s="6" t="s">
         <v>37</v>
       </c>
@@ -12074,9 +10592,6 @@
       <c r="C496" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D496" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F496" s="6" t="s">
         <v>37</v>
       </c>
@@ -12091,9 +10606,6 @@
       <c r="C497" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D497" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F497" s="6" t="s">
         <v>173</v>
       </c>
@@ -12108,9 +10620,6 @@
       <c r="C498" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D498" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F498" s="6" t="s">
         <v>37</v>
       </c>
@@ -12125,9 +10634,6 @@
       <c r="C499" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D499" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F499" s="6" t="s">
         <v>37</v>
       </c>
@@ -12142,9 +10648,6 @@
       <c r="C500" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D500" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F500" s="6" t="s">
         <v>12</v>
       </c>
@@ -12159,9 +10662,6 @@
       <c r="C501" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D501" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F501" s="6" t="s">
         <v>248</v>
       </c>
@@ -12176,9 +10676,6 @@
       <c r="C502" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D502" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F502" s="6" t="s">
         <v>248</v>
       </c>
@@ -12196,9 +10693,6 @@
       <c r="C503" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D503" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F503" s="6" t="s">
         <v>248</v>
       </c>
@@ -12216,9 +10710,6 @@
       <c r="C504" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D504" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F504" s="6" t="s">
         <v>248</v>
       </c>
@@ -12233,9 +10724,6 @@
       <c r="C505" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D505" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F505" s="6" t="s">
         <v>248</v>
       </c>
@@ -12253,9 +10741,6 @@
       <c r="C506" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D506" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F506" s="6" t="s">
         <v>248</v>
       </c>
@@ -12270,9 +10755,6 @@
       <c r="C507" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D507" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F507" s="6" t="s">
         <v>248</v>
       </c>
@@ -12287,9 +10769,6 @@
       <c r="C508" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D508" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F508" s="6" t="s">
         <v>248</v>
       </c>
@@ -12307,9 +10786,6 @@
       <c r="C509" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D509" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F509" s="6" t="s">
         <v>248</v>
       </c>
@@ -12324,9 +10800,6 @@
       <c r="C510" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D510" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F510" s="6" t="s">
         <v>26</v>
       </c>
@@ -12344,9 +10817,6 @@
       <c r="C511" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D511" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F511" s="6" t="s">
         <v>962</v>
       </c>
@@ -12358,9 +10828,6 @@
       <c r="C512" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D512" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F512" s="6" t="s">
         <v>822</v>
       </c>
@@ -12372,9 +10839,6 @@
       <c r="C513" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D513" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F513" s="6" t="s">
         <v>822</v>
       </c>
@@ -12386,9 +10850,6 @@
       <c r="C514" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D514" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F514" s="6" t="s">
         <v>12</v>
       </c>
@@ -12403,9 +10864,6 @@
       <c r="C515" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D515" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F515" s="6" t="s">
         <v>37</v>
       </c>
@@ -12420,9 +10878,6 @@
       <c r="C516" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D516" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F516" s="6" t="s">
         <v>37</v>
       </c>
@@ -12437,9 +10892,6 @@
       <c r="C517" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D517" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F517" s="6" t="s">
         <v>37</v>
       </c>
@@ -12454,9 +10906,6 @@
       <c r="C518" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D518" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F518" s="6" t="s">
         <v>37</v>
       </c>
@@ -12471,9 +10920,6 @@
       <c r="C519" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D519" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F519" s="6" t="s">
         <v>37</v>
       </c>
@@ -12488,9 +10934,6 @@
       <c r="C520" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D520" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F520" s="6" t="s">
         <v>37</v>
       </c>
@@ -12505,9 +10948,6 @@
       <c r="C521" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D521" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F521" s="6" t="s">
         <v>37</v>
       </c>
@@ -12522,9 +10962,6 @@
       <c r="C522" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D522" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F522" s="6" t="s">
         <v>37</v>
       </c>
@@ -12539,9 +10976,6 @@
       <c r="C523" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D523" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F523" s="6" t="s">
         <v>173</v>
       </c>
@@ -12556,9 +10990,6 @@
       <c r="C524" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D524" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F524" s="6" t="s">
         <v>12</v>
       </c>
@@ -12573,9 +11004,6 @@
       <c r="C525" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D525" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F525" s="6" t="s">
         <v>12</v>
       </c>
@@ -12590,9 +11018,6 @@
       <c r="C526" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D526" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F526" s="6" t="s">
         <v>12</v>
       </c>
@@ -12607,9 +11032,6 @@
       <c r="C527" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D527" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F527" s="6" t="s">
         <v>12</v>
       </c>
@@ -12624,9 +11046,6 @@
       <c r="C528" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D528" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F528" s="6" t="s">
         <v>12</v>
       </c>
@@ -12641,9 +11060,6 @@
       <c r="C529" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D529" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F529" s="6" t="s">
         <v>12</v>
       </c>
@@ -12661,9 +11077,6 @@
       <c r="C530" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D530" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F530" s="6" t="s">
         <v>12</v>
       </c>
@@ -12678,9 +11091,6 @@
       <c r="C531" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D531" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F531" s="6" t="s">
         <v>12</v>
       </c>
@@ -12695,9 +11105,6 @@
       <c r="C532" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D532" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F532" s="6" t="s">
         <v>994</v>
       </c>
@@ -12709,9 +11116,6 @@
       <c r="C533" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D533" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F533" s="6" t="s">
         <v>37</v>
       </c>
@@ -12726,9 +11130,6 @@
       <c r="C534" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D534" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F534" s="6" t="s">
         <v>12</v>
       </c>
@@ -12743,9 +11144,6 @@
       <c r="C535" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D535" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F535" s="6" t="s">
         <v>37</v>
       </c>
@@ -12760,9 +11158,6 @@
       <c r="C536" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D536" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F536" s="6" t="s">
         <v>17</v>
       </c>
@@ -12777,9 +11172,6 @@
       <c r="C537" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D537" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F537" s="6" t="s">
         <v>12</v>
       </c>
@@ -12794,9 +11186,6 @@
       <c r="C538" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D538" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F538" s="6" t="s">
         <v>12</v>
       </c>
@@ -12811,9 +11200,6 @@
       <c r="C539" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D539" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F539" s="6" t="s">
         <v>12</v>
       </c>
@@ -12828,9 +11214,6 @@
       <c r="C540" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D540" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F540" s="6" t="s">
         <v>1005</v>
       </c>
@@ -12842,9 +11225,6 @@
       <c r="C541" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D541" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F541" s="6" t="s">
         <v>1007</v>
       </c>
@@ -12859,9 +11239,6 @@
       <c r="C542" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D542" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F542" s="6" t="s">
         <v>12</v>
       </c>
@@ -12876,9 +11253,6 @@
       <c r="C543" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D543" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F543" s="6" t="s">
         <v>12</v>
       </c>
@@ -12893,9 +11267,6 @@
       <c r="C544" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D544" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F544" s="6" t="s">
         <v>12</v>
       </c>
@@ -12910,9 +11281,6 @@
       <c r="C545" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D545" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F545" s="6" t="s">
         <v>12</v>
       </c>
@@ -12927,9 +11295,6 @@
       <c r="C546" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D546" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F546" s="6" t="s">
         <v>12</v>
       </c>
@@ -12944,9 +11309,6 @@
       <c r="C547" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D547" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F547" s="6" t="s">
         <v>12</v>
       </c>
@@ -12961,9 +11323,6 @@
       <c r="C548" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D548" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F548" s="6" t="s">
         <v>12</v>
       </c>
@@ -12978,9 +11337,6 @@
       <c r="C549" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D549" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F549" s="6" t="s">
         <v>12</v>
       </c>
@@ -12995,9 +11351,6 @@
       <c r="C550" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D550" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F550" s="6" t="s">
         <v>12</v>
       </c>
@@ -13012,9 +11365,6 @@
       <c r="C551" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D551" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F551" s="6" t="s">
         <v>1024</v>
       </c>
@@ -13029,9 +11379,6 @@
       <c r="C552" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D552" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F552" s="6" t="s">
         <v>1025</v>
       </c>
@@ -13043,9 +11390,6 @@
       <c r="C553" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D553" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F553" s="6" t="s">
         <v>12</v>
       </c>
@@ -13060,9 +11404,6 @@
       <c r="C554" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D554" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F554" s="6" t="s">
         <v>12</v>
       </c>
@@ -13077,9 +11418,6 @@
       <c r="C555" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D555" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F555" s="6" t="s">
         <v>12</v>
       </c>
@@ -13097,9 +11435,6 @@
       <c r="C556" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D556" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F556" s="6" t="s">
         <v>1005</v>
       </c>
@@ -13111,9 +11446,6 @@
       <c r="C557" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D557" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F557" s="6" t="s">
         <v>12</v>
       </c>
@@ -13128,9 +11460,6 @@
       <c r="C558" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D558" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F558" s="6" t="s">
         <v>37</v>
       </c>
@@ -13145,9 +11474,6 @@
       <c r="C559" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D559" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F559" s="6" t="s">
         <v>1033</v>
       </c>
@@ -13159,9 +11485,6 @@
       <c r="C560" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D560" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F560" s="6" t="s">
         <v>12</v>
       </c>
@@ -13176,9 +11499,6 @@
       <c r="C561" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D561" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F561" s="6" t="s">
         <v>26</v>
       </c>
@@ -13196,9 +11516,6 @@
       <c r="C562" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D562" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F562" s="6" t="s">
         <v>37</v>
       </c>
@@ -13213,9 +11530,6 @@
       <c r="C563" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D563" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F563" s="6" t="s">
         <v>248</v>
       </c>
@@ -13230,9 +11544,6 @@
       <c r="C564" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D564" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F564" s="6" t="s">
         <v>1040</v>
       </c>
@@ -13244,9 +11555,6 @@
       <c r="C565" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D565" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F565" s="6" t="s">
         <v>12</v>
       </c>
@@ -13261,9 +11569,6 @@
       <c r="C566" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D566" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F566" s="6" t="s">
         <v>248</v>
       </c>
@@ -13278,9 +11583,6 @@
       <c r="C567" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D567" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F567" s="6" t="s">
         <v>1047</v>
       </c>
@@ -13292,9 +11594,6 @@
       <c r="C568" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D568" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F568" s="6" t="s">
         <v>1051</v>
       </c>
@@ -13309,9 +11608,6 @@
       <c r="C569" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D569" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F569" s="6" t="s">
         <v>1051</v>
       </c>
@@ -13326,9 +11622,6 @@
       <c r="C570" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D570" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F570" s="6" t="s">
         <v>17</v>
       </c>
@@ -13343,9 +11636,6 @@
       <c r="C571" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D571" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F571" s="6" t="s">
         <v>12</v>
       </c>
@@ -13360,9 +11650,6 @@
       <c r="C572" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D572" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F572" s="6" t="s">
         <v>12</v>
       </c>
@@ -13377,9 +11664,6 @@
       <c r="C573" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D573" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F573" s="6" t="s">
         <v>12</v>
       </c>
@@ -13397,9 +11681,6 @@
       <c r="C574" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D574" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F574" s="6" t="s">
         <v>1033</v>
       </c>
@@ -13411,9 +11692,6 @@
       <c r="C575" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D575" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F575" s="6" t="s">
         <v>12</v>
       </c>
@@ -13428,9 +11706,6 @@
       <c r="C576" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D576" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F576" s="6" t="s">
         <v>12</v>
       </c>
@@ -13445,9 +11720,6 @@
       <c r="C577" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D577" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F577" s="6" t="s">
         <v>881</v>
       </c>
@@ -13465,9 +11737,6 @@
       <c r="C578" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D578" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F578" s="6" t="s">
         <v>1066</v>
       </c>
@@ -13479,9 +11748,6 @@
       <c r="C579" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D579" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F579" s="6" t="s">
         <v>12</v>
       </c>
@@ -13496,9 +11762,6 @@
       <c r="C580" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D580" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F580" s="6" t="s">
         <v>12</v>
       </c>
@@ -13513,9 +11776,6 @@
       <c r="C581" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D581" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F581" s="6" t="s">
         <v>12</v>
       </c>
@@ -13530,9 +11790,6 @@
       <c r="C582" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D582" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F582" s="6" t="s">
         <v>37</v>
       </c>
@@ -13547,9 +11804,6 @@
       <c r="C583" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D583" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F583" s="6" t="s">
         <v>12</v>
       </c>
@@ -13564,9 +11818,6 @@
       <c r="C584" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D584" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F584" s="6" t="s">
         <v>1007</v>
       </c>
@@ -13578,9 +11829,6 @@
       <c r="C585" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D585" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F585" s="6" t="s">
         <v>1079</v>
       </c>
@@ -13592,9 +11840,6 @@
       <c r="C586" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D586" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F586" s="6" t="s">
         <v>12</v>
       </c>
@@ -13609,9 +11854,6 @@
       <c r="C587" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D587" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F587" s="6" t="s">
         <v>12</v>
       </c>
@@ -13626,9 +11868,6 @@
       <c r="C588" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D588" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F588" s="6" t="s">
         <v>17</v>
       </c>
@@ -13643,9 +11882,6 @@
       <c r="C589" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D589" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F589" s="6" t="s">
         <v>17</v>
       </c>
@@ -13660,9 +11896,6 @@
       <c r="C590" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D590" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F590" s="6" t="s">
         <v>881</v>
       </c>
@@ -13680,9 +11913,6 @@
       <c r="C591" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D591" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F591" s="6" t="s">
         <v>37</v>
       </c>
@@ -13700,9 +11930,6 @@
       <c r="C592" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D592" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F592" s="6" t="s">
         <v>17</v>
       </c>
@@ -13720,9 +11947,6 @@
       <c r="C593" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D593" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F593" s="6" t="s">
         <v>1092</v>
       </c>
@@ -13734,9 +11958,6 @@
       <c r="C594" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D594" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F594" s="6" t="s">
         <v>1092</v>
       </c>
@@ -13748,9 +11969,6 @@
       <c r="C595" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D595" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F595" s="6" t="s">
         <v>17</v>
       </c>
@@ -13765,9 +11983,6 @@
       <c r="C596" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D596" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F596" s="6" t="s">
         <v>12</v>
       </c>
@@ -13782,9 +11997,6 @@
       <c r="C597" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D597" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F597" s="6" t="s">
         <v>12</v>
       </c>
@@ -13799,9 +12011,6 @@
       <c r="C598" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D598" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F598" s="6" t="s">
         <v>881</v>
       </c>
@@ -13816,9 +12025,6 @@
       <c r="C599" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D599" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F599" s="6" t="s">
         <v>12</v>
       </c>
@@ -13833,9 +12039,6 @@
       <c r="C600" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D600" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F600" s="6" t="s">
         <v>17</v>
       </c>
@@ -13850,9 +12053,6 @@
       <c r="C601" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D601" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F601" s="6" t="s">
         <v>1102</v>
       </c>
@@ -13864,9 +12064,6 @@
       <c r="C602" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D602" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="G602" s="6" t="s">
         <v>121</v>
       </c>
@@ -13878,9 +12075,6 @@
       <c r="C603" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D603" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F603" s="6" t="s">
         <v>12</v>
       </c>
@@ -13895,9 +12089,6 @@
       <c r="C604" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D604" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F604" s="6" t="s">
         <v>17</v>
       </c>
@@ -13912,9 +12103,6 @@
       <c r="C605" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D605" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F605" s="6" t="s">
         <v>37</v>
       </c>
@@ -13932,9 +12120,6 @@
       <c r="C606" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D606" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F606" s="6" t="s">
         <v>1111</v>
       </c>
@@ -13949,9 +12134,6 @@
       <c r="C607" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D607" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F607" s="6" t="s">
         <v>17</v>
       </c>
@@ -13966,9 +12148,6 @@
       <c r="C608" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D608" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F608" s="6" t="s">
         <v>1111</v>
       </c>
@@ -13983,9 +12162,6 @@
       <c r="C609" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D609" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F609" s="6" t="s">
         <v>12</v>
       </c>
@@ -14000,9 +12176,6 @@
       <c r="C610" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D610" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F610" s="6" t="s">
         <v>17</v>
       </c>
@@ -14017,9 +12190,6 @@
       <c r="C611" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D611" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F611" s="6" t="s">
         <v>1118</v>
       </c>
@@ -14034,9 +12204,6 @@
       <c r="C612" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D612" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F612" s="6" t="s">
         <v>1121</v>
       </c>
@@ -14054,9 +12221,6 @@
       <c r="C613" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D613" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F613" s="6" t="s">
         <v>1123</v>
       </c>
@@ -14071,9 +12235,6 @@
       <c r="C614" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D614" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F614" s="6" t="s">
         <v>1124</v>
       </c>
@@ -14088,9 +12249,6 @@
       <c r="C615" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D615" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="F615" s="6" t="s">
         <v>1121</v>
       </c>
@@ -14105,9 +12263,6 @@
       <c r="C616" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D616" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F616" s="6" t="s">
         <v>17</v>
       </c>
@@ -14122,9 +12277,6 @@
       <c r="C617" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D617" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F617" s="6" t="s">
         <v>12</v>
       </c>
@@ -14139,9 +12291,6 @@
       <c r="C618" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D618" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F618" s="6" t="s">
         <v>12</v>
       </c>
@@ -14156,9 +12305,6 @@
       <c r="C619" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D619" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F619" s="6" t="s">
         <v>12</v>
       </c>
@@ -14173,9 +12319,6 @@
       <c r="C620" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D620" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F620" s="6" t="s">
         <v>12</v>
       </c>
@@ -14190,9 +12333,6 @@
       <c r="C621" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D621" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F621" s="6" t="s">
         <v>17</v>
       </c>
@@ -14210,9 +12350,6 @@
       <c r="C622" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D622" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F622" s="6" t="s">
         <v>17</v>
       </c>
@@ -14227,9 +12364,6 @@
       <c r="C623" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D623" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F623" s="6" t="s">
         <v>17</v>
       </c>
@@ -14244,9 +12378,6 @@
       <c r="C624" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D624" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F624" s="6" t="s">
         <v>17</v>
       </c>
@@ -14261,9 +12392,6 @@
       <c r="C625" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D625" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F625" s="6" t="s">
         <v>17</v>
       </c>
@@ -14278,9 +12406,6 @@
       <c r="C626" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D626" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F626" s="6" t="s">
         <v>17</v>
       </c>
@@ -14298,9 +12423,6 @@
       <c r="C627" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D627" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F627" s="6" t="s">
         <v>37</v>
       </c>
@@ -14315,9 +12437,6 @@
       <c r="C628" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D628" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F628" s="6" t="s">
         <v>37</v>
       </c>
@@ -14335,9 +12454,6 @@
       <c r="C629" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D629" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F629" s="6" t="s">
         <v>37</v>
       </c>
@@ -14352,9 +12468,6 @@
       <c r="C630" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D630" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F630" s="6" t="s">
         <v>37</v>
       </c>
@@ -14372,9 +12485,6 @@
       <c r="C631" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D631" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F631" s="6" t="s">
         <v>17</v>
       </c>
@@ -14389,9 +12499,6 @@
       <c r="C632" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D632" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F632" s="6" t="s">
         <v>17</v>
       </c>
@@ -14406,9 +12513,6 @@
       <c r="C633" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D633" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F633" s="6" t="s">
         <v>37</v>
       </c>
@@ -14423,9 +12527,6 @@
       <c r="C634" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D634" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F634" s="6" t="s">
         <v>12</v>
       </c>
@@ -14440,9 +12541,6 @@
       <c r="C635" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D635" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F635" s="6" t="s">
         <v>12</v>
       </c>
@@ -14457,9 +12555,6 @@
       <c r="C636" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D636" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F636" s="6" t="s">
         <v>12</v>
       </c>
@@ -14474,9 +12569,6 @@
       <c r="C637" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D637" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F637" s="6" t="s">
         <v>17</v>
       </c>
@@ -14491,9 +12583,6 @@
       <c r="C638" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D638" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F638" s="6" t="s">
         <v>12</v>
       </c>
@@ -14508,9 +12597,6 @@
       <c r="C639" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D639" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F639" s="6" t="s">
         <v>12</v>
       </c>
@@ -14525,9 +12611,6 @@
       <c r="C640" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D640" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F640" s="6" t="s">
         <v>12</v>
       </c>
@@ -14542,9 +12625,6 @@
       <c r="C641" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D641" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F641" s="6" t="s">
         <v>12</v>
       </c>
@@ -14559,9 +12639,6 @@
       <c r="C642" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D642" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F642" s="6" t="s">
         <v>17</v>
       </c>
@@ -14576,9 +12653,6 @@
       <c r="C643" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D643" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F643" s="6" t="s">
         <v>12</v>
       </c>
@@ -14596,9 +12670,6 @@
       <c r="C644" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D644" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F644" s="6" t="s">
         <v>12</v>
       </c>
@@ -14613,9 +12684,6 @@
       <c r="C645" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D645" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F645" s="6" t="s">
         <v>12</v>
       </c>
@@ -14630,9 +12698,6 @@
       <c r="C646" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D646" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F646" s="6" t="s">
         <v>12</v>
       </c>
@@ -14647,9 +12712,6 @@
       <c r="C647" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D647" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F647" s="6" t="s">
         <v>12</v>
       </c>
@@ -14664,9 +12726,6 @@
       <c r="C648" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D648" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F648" s="6" t="s">
         <v>37</v>
       </c>
@@ -14681,9 +12740,6 @@
       <c r="C649" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D649" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F649" s="6" t="s">
         <v>12</v>
       </c>
@@ -14698,9 +12754,6 @@
       <c r="C650" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D650" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F650" s="6" t="s">
         <v>37</v>
       </c>
@@ -14715,9 +12768,6 @@
       <c r="C651" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D651" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F651" s="6" t="s">
         <v>37</v>
       </c>
@@ -14732,9 +12782,6 @@
       <c r="C652" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D652" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F652" s="6" t="s">
         <v>37</v>
       </c>
@@ -14749,9 +12796,6 @@
       <c r="C653" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D653" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F653" s="6" t="s">
         <v>37</v>
       </c>
@@ -14766,9 +12810,6 @@
       <c r="C654" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D654" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F654" s="6" t="s">
         <v>12</v>
       </c>
@@ -14783,9 +12824,6 @@
       <c r="C655" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D655" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F655" s="6" t="s">
         <v>37</v>
       </c>
@@ -14800,9 +12838,6 @@
       <c r="C656" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D656" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F656" s="6" t="s">
         <v>12</v>
       </c>
@@ -14817,9 +12852,6 @@
       <c r="C657" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D657" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F657" s="6" t="s">
         <v>12</v>
       </c>
@@ -14834,9 +12866,6 @@
       <c r="C658" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D658" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F658" s="6" t="s">
         <v>37</v>
       </c>
@@ -14851,9 +12880,6 @@
       <c r="C659" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D659" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F659" s="6" t="s">
         <v>37</v>
       </c>
@@ -14868,9 +12894,6 @@
       <c r="C660" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D660" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F660" s="6" t="s">
         <v>37</v>
       </c>
@@ -14885,9 +12908,6 @@
       <c r="C661" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D661" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F661" s="6" t="s">
         <v>37</v>
       </c>
@@ -14902,9 +12922,6 @@
       <c r="C662" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D662" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F662" s="6" t="s">
         <v>37</v>
       </c>
@@ -14919,9 +12936,6 @@
       <c r="C663" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D663" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F663" s="6" t="s">
         <v>37</v>
       </c>
@@ -14939,9 +12953,6 @@
       <c r="C664" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D664" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F664" s="6" t="s">
         <v>37</v>
       </c>
@@ -14956,9 +12967,6 @@
       <c r="C665" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D665" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F665" s="6" t="s">
         <v>37</v>
       </c>
@@ -14976,9 +12984,6 @@
       <c r="C666" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D666" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F666" s="6" t="s">
         <v>37</v>
       </c>
@@ -14993,9 +12998,6 @@
       <c r="C667" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D667" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F667" s="6" t="s">
         <v>37</v>
       </c>
@@ -15013,9 +13015,6 @@
       <c r="C668" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D668" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F668" s="6" t="s">
         <v>37</v>
       </c>
@@ -15033,9 +13032,6 @@
       <c r="C669" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D669" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F669" s="6" t="s">
         <v>37</v>
       </c>
@@ -15050,9 +13046,6 @@
       <c r="C670" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D670" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F670" s="6" t="s">
         <v>37</v>
       </c>
@@ -15067,9 +13060,6 @@
       <c r="C671" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D671" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F671" s="6" t="s">
         <v>37</v>
       </c>
@@ -15084,9 +13074,6 @@
       <c r="C672" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D672" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F672" s="6" t="s">
         <v>37</v>
       </c>
@@ -15104,9 +13091,6 @@
       <c r="C673" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D673" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F673" s="6" t="s">
         <v>37</v>
       </c>
@@ -15121,9 +13105,6 @@
       <c r="C674" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D674" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F674" s="6" t="s">
         <v>37</v>
       </c>
@@ -15138,9 +13119,6 @@
       <c r="C675" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D675" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F675" s="6" t="s">
         <v>37</v>
       </c>
@@ -15158,9 +13136,6 @@
       <c r="C676" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D676" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F676" s="6" t="s">
         <v>37</v>
       </c>
@@ -15178,9 +13153,6 @@
       <c r="C677" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D677" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F677" s="6" t="s">
         <v>37</v>
       </c>
@@ -15195,9 +13167,6 @@
       <c r="C678" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D678" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F678" s="6" t="s">
         <v>37</v>
       </c>
@@ -15215,9 +13184,6 @@
       <c r="C679" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D679" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F679" s="6" t="s">
         <v>37</v>
       </c>
@@ -15232,9 +13198,6 @@
       <c r="C680" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D680" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F680" s="6" t="s">
         <v>37</v>
       </c>
@@ -15249,9 +13212,6 @@
       <c r="C681" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D681" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F681" s="6" t="s">
         <v>37</v>
       </c>
@@ -15269,9 +13229,6 @@
       <c r="C682" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D682" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F682" s="6" t="s">
         <v>37</v>
       </c>
@@ -15289,9 +13246,6 @@
       <c r="C683" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D683" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F683" s="6" t="s">
         <v>37</v>
       </c>
@@ -15306,9 +13260,6 @@
       <c r="C684" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D684" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F684" s="6" t="s">
         <v>37</v>
       </c>
@@ -15323,9 +13274,6 @@
       <c r="C685" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D685" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F685" s="6" t="s">
         <v>173</v>
       </c>
@@ -15343,9 +13291,6 @@
       <c r="C686" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D686" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F686" s="6" t="s">
         <v>173</v>
       </c>
@@ -15360,9 +13305,6 @@
       <c r="C687" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D687" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F687" s="6" t="s">
         <v>173</v>
       </c>
@@ -15377,9 +13319,6 @@
       <c r="C688" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D688" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F688" s="6" t="s">
         <v>173</v>
       </c>
@@ -15394,9 +13333,6 @@
       <c r="C689" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D689" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F689" s="6" t="s">
         <v>12</v>
       </c>
@@ -15411,9 +13347,6 @@
       <c r="C690" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D690" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F690" s="6" t="s">
         <v>12</v>
       </c>
@@ -15428,9 +13361,6 @@
       <c r="C691" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D691" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F691" s="6" t="s">
         <v>12</v>
       </c>
@@ -15445,9 +13375,6 @@
       <c r="C692" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D692" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F692" s="6" t="s">
         <v>37</v>
       </c>
@@ -15465,9 +13392,6 @@
       <c r="C693" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D693" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F693" s="6" t="s">
         <v>12</v>
       </c>
@@ -15482,9 +13406,6 @@
       <c r="C694" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D694" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F694" s="6" t="s">
         <v>12</v>
       </c>
@@ -15499,9 +13420,6 @@
       <c r="C695" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D695" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F695" s="6" t="s">
         <v>12</v>
       </c>
@@ -15519,9 +13437,6 @@
       <c r="C696" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D696" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F696" s="6" t="s">
         <v>173</v>
       </c>
@@ -15536,9 +13451,6 @@
       <c r="C697" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D697" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F697" s="6" t="s">
         <v>17</v>
       </c>
@@ -15553,9 +13465,6 @@
       <c r="C698" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D698" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F698" s="6" t="s">
         <v>17</v>
       </c>
@@ -15573,9 +13482,6 @@
       <c r="C699" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D699" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F699" s="6" t="s">
         <v>37</v>
       </c>
@@ -15590,9 +13496,6 @@
       <c r="C700" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D700" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F700" s="6" t="s">
         <v>579</v>
       </c>
@@ -15607,9 +13510,6 @@
       <c r="C701" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D701" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F701" s="6" t="s">
         <v>12</v>
       </c>
@@ -15624,9 +13524,6 @@
       <c r="C702" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D702" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F702" s="6" t="s">
         <v>37</v>
       </c>
@@ -15644,9 +13541,6 @@
       <c r="C703" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D703" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F703" s="6" t="s">
         <v>37</v>
       </c>
@@ -15661,9 +13555,6 @@
       <c r="C704" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D704" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F704" s="6" t="s">
         <v>12</v>
       </c>
@@ -15678,9 +13569,6 @@
       <c r="C705" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D705" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F705" s="6" t="s">
         <v>37</v>
       </c>
@@ -15695,9 +13583,6 @@
       <c r="C706" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D706" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F706" s="6" t="s">
         <v>12</v>
       </c>
@@ -15712,9 +13597,6 @@
       <c r="C707" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D707" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F707" s="6" t="s">
         <v>12</v>
       </c>
@@ -15729,9 +13611,6 @@
       <c r="C708" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D708" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F708" s="6" t="s">
         <v>12</v>
       </c>
@@ -15746,9 +13625,6 @@
       <c r="C709" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D709" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F709" s="6" t="s">
         <v>12</v>
       </c>
@@ -15763,9 +13639,6 @@
       <c r="C710" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D710" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F710" s="6" t="s">
         <v>12</v>
       </c>
@@ -15780,9 +13653,6 @@
       <c r="C711" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D711" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F711" s="6" t="s">
         <v>12</v>
       </c>
@@ -15797,9 +13667,6 @@
       <c r="C712" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D712" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F712" s="6" t="s">
         <v>12</v>
       </c>
@@ -15817,9 +13684,6 @@
       <c r="C713" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D713" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F713" s="6" t="s">
         <v>12</v>
       </c>
@@ -15834,9 +13698,6 @@
       <c r="C714" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D714" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F714" s="6" t="s">
         <v>12</v>
       </c>
@@ -15851,9 +13712,6 @@
       <c r="C715" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D715" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F715" s="6" t="s">
         <v>12</v>
       </c>
@@ -15871,9 +13729,6 @@
       <c r="C716" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D716" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F716" s="6" t="s">
         <v>12</v>
       </c>
@@ -15888,9 +13743,6 @@
       <c r="C717" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D717" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F717" s="6" t="s">
         <v>12</v>
       </c>
@@ -15908,9 +13760,6 @@
       <c r="C718" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D718" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F718" s="6" t="s">
         <v>12</v>
       </c>
@@ -15925,9 +13774,6 @@
       <c r="C719" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D719" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F719" s="6" t="s">
         <v>12</v>
       </c>
@@ -15942,9 +13788,6 @@
       <c r="C720" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D720" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F720" s="6" t="s">
         <v>12</v>
       </c>
@@ -15959,9 +13802,6 @@
       <c r="C721" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D721" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F721" s="6" t="s">
         <v>12</v>
       </c>
@@ -15976,9 +13816,6 @@
       <c r="C722" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D722" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F722" s="6" t="s">
         <v>12</v>
       </c>
@@ -15993,9 +13830,6 @@
       <c r="C723" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D723" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F723" s="6" t="s">
         <v>12</v>
       </c>
@@ -16010,9 +13844,6 @@
       <c r="C724" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D724" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F724" s="6" t="s">
         <v>12</v>
       </c>
@@ -16027,9 +13858,6 @@
       <c r="C725" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D725" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F725" s="6" t="s">
         <v>12</v>
       </c>
@@ -16044,9 +13872,6 @@
       <c r="C726" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D726" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F726" s="6" t="s">
         <v>12</v>
       </c>
@@ -16061,9 +13886,6 @@
       <c r="C727" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D727" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F727" s="6" t="s">
         <v>37</v>
       </c>
@@ -16081,9 +13903,6 @@
       <c r="C728" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D728" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F728" s="6" t="s">
         <v>37</v>
       </c>
@@ -16098,9 +13917,6 @@
       <c r="C729" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D729" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F729" s="6" t="s">
         <v>37</v>
       </c>
@@ -16118,9 +13934,6 @@
       <c r="C730" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D730" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F730" s="6" t="s">
         <v>579</v>
       </c>
@@ -16138,9 +13951,6 @@
       <c r="C731" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D731" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F731" s="6" t="s">
         <v>37</v>
       </c>
@@ -16155,9 +13965,6 @@
       <c r="C732" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D732" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F732" s="6" t="s">
         <v>37</v>
       </c>
@@ -16172,9 +13979,6 @@
       <c r="C733" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D733" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="G733" s="6" t="s">
         <v>451</v>
       </c>
@@ -16189,9 +13993,6 @@
       <c r="C734" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D734" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="G734" s="6" t="s">
         <v>451</v>
       </c>
@@ -16206,9 +14007,6 @@
       <c r="C735" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D735" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="G735" s="6" t="s">
         <v>451</v>
       </c>
@@ -16220,9 +14018,6 @@
       <c r="C736" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D736" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F736" s="6" t="s">
         <v>37</v>
       </c>
@@ -16237,9 +14032,6 @@
       <c r="C737" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D737" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F737" s="6" t="s">
         <v>37</v>
       </c>
@@ -16254,9 +14046,6 @@
       <c r="C738" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D738" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F738" s="6" t="s">
         <v>17</v>
       </c>
@@ -16271,9 +14060,6 @@
       <c r="C739" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D739" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F739" s="6" t="s">
         <v>17</v>
       </c>
@@ -16291,9 +14077,6 @@
       <c r="C740" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D740" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F740" s="6" t="s">
         <v>37</v>
       </c>
@@ -16308,9 +14091,6 @@
       <c r="C741" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D741" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F741" s="6" t="s">
         <v>37</v>
       </c>
@@ -16325,9 +14105,6 @@
       <c r="C742" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D742" s="6" t="b">
-        <v>1</v>
-      </c>
       <c r="F742" s="6" t="s">
         <v>37</v>
       </c>
@@ -16344,9 +14121,6 @@
       </c>
       <c r="C743" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D743" s="6" t="b">
-        <v>1</v>
       </c>
       <c r="F743" s="6" t="s">
         <v>579</v>

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_maybeinorgtree_tocode.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_maybeinorgtree_tocode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D03A514-7097-4F80-ABC4-5FB82092EE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C425AA6-B3F8-46EC-B9B9-D5D9373AFC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11720" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="1157">
   <si>
     <t>OrgString</t>
   </si>
@@ -3449,6 +3449,48 @@
   </si>
   <si>
     <t>OrgName_NeedToChange</t>
+  </si>
+  <si>
+    <t>금속공업부/성 + 기계공업부/성?</t>
+  </si>
+  <si>
+    <t>금속기계공업성?</t>
+  </si>
+  <si>
+    <t>금속기계공업위원회? 기계공업부/성?</t>
+  </si>
+  <si>
+    <t>내각 --&gt; 최고인민회의?</t>
+  </si>
+  <si>
+    <t>In OrgTree, 내각 없음; 농업위원회의 PrimaryInstitution 없어요</t>
+  </si>
+  <si>
+    <t>InOrgTree = 대외경제성_조선국제무역촉위원회</t>
+  </si>
+  <si>
+    <t>대외경제성_무역지도국?</t>
+  </si>
+  <si>
+    <t>InOrgTree = 대외경제성_대외경제협의국?</t>
+  </si>
+  <si>
+    <t>InOrgTree, 문화성_조선중앙방송위원회_텔레비전총국</t>
+  </si>
+  <si>
+    <t>InOrgTree, 석탄공업성</t>
+  </si>
+  <si>
+    <t>In Link Table, 대외경제위원회_대외경제협력추진위원회?</t>
+  </si>
+  <si>
+    <t>InOrgTree, 최고인민회의; 양강도인민위원회</t>
+  </si>
+  <si>
+    <t>InOrgTree, 내각; 외교부_미주과, 외교부_미주국</t>
+  </si>
+  <si>
+    <t>InOrgTree, 최고인민회의; 자강도인민위원회</t>
   </si>
 </sst>
 </file>
@@ -3860,18 +3902,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N173" sqref="N173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="2.1796875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="12.26953125" style="6" customWidth="1"/>
-    <col min="5" max="6" width="28.6328125" style="6" customWidth="1"/>
-    <col min="7" max="8" width="29.90625" style="10" customWidth="1"/>
-    <col min="9" max="11" width="6.36328125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="34.6328125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="2.36328125" style="10" customWidth="1"/>
+    <col min="9" max="11" width="2.36328125" style="8" customWidth="1"/>
     <col min="12" max="12" width="15.81640625" style="4" customWidth="1"/>
     <col min="13" max="16384" width="8.7265625" style="4"/>
   </cols>
@@ -4274,9 +4317,6 @@
       <c r="C24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="E24" s="6" t="s">
         <v>173</v>
       </c>
@@ -4294,9 +4334,6 @@
       <c r="C25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="E25" s="6" t="s">
         <v>173</v>
       </c>
@@ -5497,6 +5534,9 @@
       <c r="C94" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D94" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E94" s="6" t="s">
         <v>37</v>
       </c>
@@ -5514,6 +5554,9 @@
       <c r="C95" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D95" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E95" s="6" t="s">
         <v>37</v>
       </c>
@@ -5528,6 +5571,9 @@
       <c r="C96" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D96" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E96" s="6" t="s">
         <v>37</v>
       </c>
@@ -5535,13 +5581,16 @@
         <v>969</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>970</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D97" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E97" s="6" t="s">
         <v>37</v>
       </c>
@@ -5549,13 +5598,16 @@
         <v>971</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>972</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D98" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E98" s="6" t="s">
         <v>37</v>
       </c>
@@ -5563,13 +5615,16 @@
         <v>972</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>975</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D99" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E99" s="6" t="s">
         <v>37</v>
       </c>
@@ -5577,13 +5632,16 @@
         <v>975</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>976</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D100" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E100" s="6" t="s">
         <v>37</v>
       </c>
@@ -5591,13 +5649,16 @@
         <v>975</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D101" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E101" s="6" t="s">
         <v>37</v>
       </c>
@@ -5605,13 +5666,16 @@
         <v>977</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>938</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D102" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E102" s="6" t="s">
         <v>37</v>
       </c>
@@ -5619,13 +5683,16 @@
         <v>938</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>937</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D103" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E103" s="6" t="s">
         <v>37</v>
       </c>
@@ -5633,13 +5700,16 @@
         <v>938</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>915</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D104" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E104" s="6" t="s">
         <v>37</v>
       </c>
@@ -5647,13 +5717,16 @@
         <v>915</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>916</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D105" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E105" s="6" t="s">
         <v>37</v>
       </c>
@@ -5661,13 +5734,16 @@
         <v>917</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>918</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D106" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E106" s="6" t="s">
         <v>37</v>
       </c>
@@ -5675,7 +5751,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>421</v>
       </c>
@@ -5685,6 +5761,9 @@
       <c r="C107" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D107" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E107" s="6" t="s">
         <v>37</v>
       </c>
@@ -5692,7 +5771,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>425</v>
       </c>
@@ -5705,8 +5784,11 @@
       <c r="F108" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L108" s="4" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>424</v>
       </c>
@@ -5719,8 +5801,11 @@
       <c r="F109" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L109" s="4" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>426</v>
       </c>
@@ -5736,8 +5821,11 @@
       <c r="F110" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L110" s="4" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>426</v>
       </c>
@@ -5750,8 +5838,11 @@
       <c r="F111" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L111" s="4" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>423</v>
       </c>
@@ -5764,8 +5855,11 @@
       <c r="F112" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L112" s="4" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>678</v>
       </c>
@@ -5778,8 +5872,11 @@
       <c r="F113" s="6" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L113" s="4" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>678</v>
       </c>
@@ -5795,8 +5892,11 @@
       <c r="F114" s="6" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L114" s="4" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>677</v>
       </c>
@@ -5809,8 +5909,11 @@
       <c r="F115" s="6" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L115" s="4" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>779</v>
       </c>
@@ -5823,8 +5926,11 @@
       <c r="F116" s="6" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L116" s="4" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>776</v>
       </c>
@@ -5837,8 +5943,11 @@
       <c r="F117" s="6" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L117" s="4" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>812</v>
       </c>
@@ -5851,8 +5960,11 @@
       <c r="F118" s="6" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L118" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>55</v>
       </c>
@@ -5865,8 +5977,11 @@
       <c r="F119" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L119" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>489</v>
       </c>
@@ -5879,8 +5994,11 @@
       <c r="F120" s="6" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L120" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>491</v>
       </c>
@@ -5893,8 +6011,11 @@
       <c r="F121" s="6" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L121" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>499</v>
       </c>
@@ -5907,8 +6028,11 @@
       <c r="F122" s="6" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L122" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>501</v>
       </c>
@@ -5921,8 +6045,11 @@
       <c r="F123" s="6" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L123" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>612</v>
       </c>
@@ -5935,8 +6062,11 @@
       <c r="F124" s="6" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L124" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>414</v>
       </c>
@@ -5949,8 +6079,11 @@
       <c r="F125" s="6" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L125" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>454</v>
       </c>
@@ -5963,8 +6096,11 @@
       <c r="F126" s="6" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L126" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>343</v>
       </c>
@@ -5977,8 +6113,11 @@
       <c r="F127" s="6" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L127" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>345</v>
       </c>
@@ -5991,8 +6130,11 @@
       <c r="F128" s="6" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L128" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>256</v>
       </c>
@@ -6005,8 +6147,11 @@
       <c r="F129" s="6" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L129" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>228</v>
       </c>
@@ -6019,8 +6164,11 @@
       <c r="F130" s="6" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L130" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>932</v>
       </c>
@@ -6033,8 +6181,11 @@
       <c r="F131" s="6" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L131" s="4" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>934</v>
       </c>
@@ -6047,14 +6198,20 @@
       <c r="F132" s="6" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L132" s="4" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>966</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D133" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E133" s="6" t="s">
         <v>37</v>
       </c>
@@ -6062,13 +6219,16 @@
         <v>967</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>679</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D134" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E134" s="6" t="s">
         <v>37</v>
       </c>
@@ -6076,7 +6236,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>235</v>
       </c>
@@ -6086,6 +6246,9 @@
       <c r="C135" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D135" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E135" s="6" t="s">
         <v>37</v>
       </c>
@@ -6093,13 +6256,16 @@
         <v>236</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>532</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D136" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E136" s="6" t="s">
         <v>37</v>
       </c>
@@ -6107,7 +6273,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>72</v>
       </c>
@@ -6120,8 +6286,11 @@
       <c r="F137" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L137" s="4" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>93</v>
       </c>
@@ -6134,8 +6303,11 @@
       <c r="F138" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L138" s="4" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>146</v>
       </c>
@@ -6148,8 +6320,11 @@
       <c r="F139" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L139" s="4" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>94</v>
       </c>
@@ -6162,14 +6337,20 @@
       <c r="F140" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L140" s="4" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>526</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D141" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E141" s="6" t="s">
         <v>37</v>
       </c>
@@ -6177,7 +6358,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>141</v>
       </c>
@@ -6190,8 +6371,11 @@
       <c r="F142" s="6" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L142" s="4" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>141</v>
       </c>
@@ -6207,8 +6391,11 @@
       <c r="F143" s="6" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L143" s="4" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>437</v>
       </c>
@@ -6221,8 +6408,11 @@
       <c r="F144" s="6" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L144" s="4" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>140</v>
       </c>
@@ -6235,14 +6425,20 @@
       <c r="F145" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L145" s="4" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>750</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D146" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E146" s="6" t="s">
         <v>37</v>
       </c>
@@ -6250,13 +6446,16 @@
         <v>751</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>751</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D147" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E147" s="6" t="s">
         <v>37</v>
       </c>
@@ -6264,13 +6463,16 @@
         <v>751</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>208</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D148" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E148" s="6" t="s">
         <v>37</v>
       </c>
@@ -6278,13 +6480,16 @@
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>207</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D149" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E149" s="6" t="s">
         <v>37</v>
       </c>
@@ -6292,13 +6497,16 @@
         <v>178</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>177</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D150" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E150" s="6" t="s">
         <v>37</v>
       </c>
@@ -6306,7 +6514,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>982</v>
       </c>
@@ -6316,6 +6524,9 @@
       <c r="C151" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D151" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E151" s="6" t="s">
         <v>37</v>
       </c>
@@ -6323,13 +6534,16 @@
         <v>983</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>428</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D152" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E152" s="6" t="s">
         <v>37</v>
       </c>
@@ -6337,7 +6551,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>769</v>
       </c>
@@ -6353,14 +6567,20 @@
       <c r="F153" s="6" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L153" s="4" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>543</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D154" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E154" s="6" t="s">
         <v>37</v>
       </c>
@@ -6368,7 +6588,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>237</v>
       </c>
@@ -6381,8 +6601,11 @@
       <c r="F155" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L155" s="4" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>238</v>
       </c>
@@ -6395,8 +6618,11 @@
       <c r="F156" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L156" s="4" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>208</v>
       </c>
@@ -6406,6 +6632,9 @@
       <c r="C157" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D157" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E157" s="6" t="s">
         <v>37</v>
       </c>
@@ -6413,13 +6642,16 @@
         <v>420</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>600</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D158" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E158" s="6" t="s">
         <v>37</v>
       </c>
@@ -6427,7 +6659,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>290</v>
       </c>
@@ -6440,14 +6672,20 @@
       <c r="F159" s="6" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L159" s="4" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>1113</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D160" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E160" s="6" t="s">
         <v>37</v>
       </c>
@@ -6455,13 +6693,16 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>280</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D161" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E161" s="6" t="s">
         <v>37</v>
       </c>
@@ -6469,7 +6710,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>412</v>
       </c>
@@ -6483,7 +6724,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>306</v>
       </c>
@@ -6496,14 +6737,20 @@
       <c r="F163" s="6" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L163" s="4" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>1126</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D164" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E164" s="6" t="s">
         <v>37</v>
       </c>
@@ -6511,13 +6758,16 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>1068</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D165" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E165" s="6" t="s">
         <v>37</v>
       </c>
@@ -6525,7 +6775,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>1107</v>
       </c>
@@ -6535,6 +6785,9 @@
       <c r="C166" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D166" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E166" s="6" t="s">
         <v>37</v>
       </c>
@@ -6542,13 +6795,16 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>407</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D167" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E167" s="6" t="s">
         <v>37</v>
       </c>
@@ -6556,13 +6812,16 @@
         <v>408</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>409</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D168" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E168" s="6" t="s">
         <v>37</v>
       </c>
@@ -6570,13 +6829,16 @@
         <v>408</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>410</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D169" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E169" s="6" t="s">
         <v>37</v>
       </c>
@@ -6584,13 +6846,16 @@
         <v>408</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>405</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D170" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E170" s="6" t="s">
         <v>37</v>
       </c>
@@ -6598,13 +6863,16 @@
         <v>406</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D171" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E171" s="6" t="s">
         <v>37</v>
       </c>
@@ -6612,7 +6880,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>306</v>
       </c>
@@ -6625,8 +6893,11 @@
       <c r="F172" s="6" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L172" s="4" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>264</v>
       </c>
@@ -6639,8 +6910,11 @@
       <c r="F173" s="6" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L173" s="4" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>287</v>
       </c>
@@ -6653,14 +6927,20 @@
       <c r="F174" s="6" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L174" s="4" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>304</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D175" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E175" s="6" t="s">
         <v>37</v>
       </c>
@@ -6668,7 +6948,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>438</v>
       </c>
@@ -6678,6 +6958,9 @@
       <c r="C176" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D176" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E176" s="6" t="s">
         <v>37</v>
       </c>
@@ -6685,7 +6968,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>319</v>
       </c>
@@ -6695,6 +6978,9 @@
       <c r="C177" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D177" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E177" s="6" t="s">
         <v>37</v>
       </c>
@@ -6702,7 +6988,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>602</v>
       </c>
@@ -6712,6 +6998,9 @@
       <c r="C178" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D178" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E178" s="6" t="s">
         <v>37</v>
       </c>
@@ -6719,13 +7008,16 @@
         <v>603</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>555</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D179" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E179" s="6" t="s">
         <v>37</v>
       </c>
@@ -6733,13 +7025,16 @@
         <v>556</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>627</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D180" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E180" s="6" t="s">
         <v>37</v>
       </c>
@@ -6747,13 +7042,16 @@
         <v>628</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>629</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D181" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E181" s="6" t="s">
         <v>37</v>
       </c>
@@ -6761,13 +7059,16 @@
         <v>628</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>557</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D182" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="E182" s="6" t="s">
         <v>37</v>
       </c>
@@ -6775,7 +7076,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>60</v>
       </c>
@@ -6788,8 +7089,11 @@
       <c r="F183" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L183" s="4" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>62</v>
       </c>
@@ -6802,8 +7106,11 @@
       <c r="F184" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L184" s="4" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>466</v>
       </c>
@@ -6817,7 +7124,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>466</v>
       </c>
@@ -6834,7 +7141,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>441</v>
       </c>
@@ -6848,7 +7155,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>452</v>
       </c>
@@ -6862,7 +7169,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>451</v>
       </c>
@@ -6879,7 +7186,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>796</v>
       </c>
@@ -6893,7 +7200,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>450</v>
       </c>
@@ -6910,7 +7217,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>396</v>
       </c>
